--- a/rightcanopy_array_maker.xlsx
+++ b/rightcanopy_array_maker.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="8">
   <si>
     <t>Rows</t>
   </si>
@@ -35,16 +36,19 @@
     <t/>
   </si>
   <si>
-    <t>LEFT CANOPY</t>
-  </si>
-  <si>
-    <t>FRONT</t>
-  </si>
-  <si>
     <t>TOP</t>
   </si>
   <si>
     <t>BOTTOM</t>
+  </si>
+  <si>
+    <t>RIGHT CANOPY</t>
+  </si>
+  <si>
+    <t>uint16_t rightmatrix[] = {999, 999, 999, 29, 30, 31, 999, 7, 8, 9, 10, 11, 12, 13, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 28, 27, 26, 25, 24, 23, 22, 21, 20, 19, 18, 17, 16, 15, 14, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 128, 127, 126, 125, 124, 123, 122, 121, 120, 119, 118, 117, 116, 115, 114, 113, 112, 111, 110, 109, 108, 107, 106, 105, 104, 103, 102, 101, 100, 99, 98, 97, 96, 95, 94, 93, 92, 999, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 999, 999, 999, 999, 999, 999, 999,  259, 258, 257, 256, 255, 254, 253, 252, 251, 250, 249, 248, 247, 246, 245, 244, 243, 242, 241, 240, 239, 238, 237, 236, 235, 234, 233, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 335, 334, 333, 332, 331, 330, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999, 999};</t>
+  </si>
+  <si>
+    <t>REAR</t>
   </si>
 </sst>
 </file>
@@ -185,13 +189,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -559,7 +564,7 @@
   <dimension ref="A1:BD188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A167" sqref="A28:XFD167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
@@ -735,69 +740,131 @@
       <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7">
-        <v>336</v>
-      </c>
-      <c r="R3" s="7">
-        <v>337</v>
-      </c>
-      <c r="S3" s="7">
-        <v>338</v>
-      </c>
-      <c r="T3" s="7">
-        <v>339</v>
-      </c>
-      <c r="U3" s="7">
-        <v>340</v>
-      </c>
-      <c r="V3" s="7">
-        <v>341</v>
-      </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="7"/>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="6">
+        <v>330</v>
+      </c>
+      <c r="U3" s="6">
+        <v>331</v>
+      </c>
+      <c r="V3" s="6">
+        <v>332</v>
+      </c>
+      <c r="W3" s="6">
+        <v>333</v>
+      </c>
+      <c r="X3" s="6">
+        <v>334</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>335</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
       <c r="BB3">
         <v>0</v>
       </c>
@@ -814,99 +881,131 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7">
-        <v>308</v>
-      </c>
-      <c r="L4" s="7">
-        <v>307</v>
-      </c>
-      <c r="M4" s="7">
-        <v>306</v>
-      </c>
-      <c r="N4" s="7">
-        <v>305</v>
-      </c>
-      <c r="O4" s="7">
-        <v>304</v>
-      </c>
-      <c r="P4" s="7">
-        <v>303</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>302</v>
-      </c>
-      <c r="R4" s="7">
-        <v>301</v>
-      </c>
-      <c r="S4" s="7">
-        <v>300</v>
-      </c>
-      <c r="T4" s="7">
-        <v>299</v>
-      </c>
-      <c r="U4" s="7">
-        <v>298</v>
-      </c>
-      <c r="V4" s="7">
-        <v>297</v>
-      </c>
-      <c r="W4" s="7">
-        <v>296</v>
-      </c>
-      <c r="X4" s="7">
-        <v>295</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>294</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>293</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>292</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>291</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>290</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>289</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>288</v>
-      </c>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="6">
+        <v>329</v>
+      </c>
+      <c r="L4" s="6">
+        <v>328</v>
+      </c>
+      <c r="M4" s="6">
+        <v>327</v>
+      </c>
+      <c r="N4" s="6">
+        <v>326</v>
+      </c>
+      <c r="O4" s="6">
+        <v>325</v>
+      </c>
+      <c r="P4" s="6">
+        <v>324</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>323</v>
+      </c>
+      <c r="R4" s="6">
+        <v>322</v>
+      </c>
+      <c r="S4" s="6">
+        <v>321</v>
+      </c>
+      <c r="T4" s="6">
+        <v>320</v>
+      </c>
+      <c r="U4" s="6">
+        <v>319</v>
+      </c>
+      <c r="V4" s="6">
+        <v>318</v>
+      </c>
+      <c r="W4" s="6">
+        <v>317</v>
+      </c>
+      <c r="X4" s="6">
+        <v>316</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>315</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>314</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>313</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>312</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>311</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>310</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>309</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
       <c r="BB4">
         <v>1</v>
       </c>
@@ -921,118 +1020,136 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7">
-        <v>260</v>
-      </c>
-      <c r="H5" s="7">
-        <v>261</v>
-      </c>
-      <c r="I5" s="7">
-        <v>262</v>
-      </c>
-      <c r="J5" s="7">
-        <v>263</v>
-      </c>
-      <c r="K5" s="7">
-        <v>264</v>
-      </c>
-      <c r="L5" s="7">
-        <v>265</v>
-      </c>
-      <c r="M5" s="7">
-        <v>266</v>
-      </c>
-      <c r="N5" s="7">
-        <v>267</v>
-      </c>
-      <c r="O5" s="7">
-        <v>268</v>
-      </c>
-      <c r="P5" s="7">
-        <v>269</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>270</v>
-      </c>
-      <c r="R5" s="7">
-        <v>271</v>
-      </c>
-      <c r="S5" s="7">
-        <v>272</v>
-      </c>
-      <c r="T5" s="7">
-        <v>273</v>
-      </c>
-      <c r="U5" s="7">
-        <v>274</v>
-      </c>
-      <c r="V5" s="7">
-        <v>275</v>
-      </c>
-      <c r="W5" s="7">
-        <v>276</v>
-      </c>
-      <c r="X5" s="7">
-        <v>277</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>278</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>279</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>280</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>281</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>282</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>283</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>284</v>
-      </c>
-      <c r="AF5" s="7">
-        <v>285</v>
-      </c>
-      <c r="AG5" s="7">
-        <v>286</v>
-      </c>
-      <c r="AH5" s="7">
-        <v>287</v>
-      </c>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>233</v>
+      </c>
+      <c r="J5" s="6">
+        <v>234</v>
+      </c>
+      <c r="K5" s="6">
+        <v>235</v>
+      </c>
+      <c r="L5" s="6">
+        <v>236</v>
+      </c>
+      <c r="M5" s="6">
+        <v>237</v>
+      </c>
+      <c r="N5" s="6">
+        <v>238</v>
+      </c>
+      <c r="O5" s="6">
+        <v>239</v>
+      </c>
+      <c r="P5" s="6">
+        <v>240</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>241</v>
+      </c>
+      <c r="R5" s="6">
+        <v>242</v>
+      </c>
+      <c r="S5" s="6">
+        <v>243</v>
+      </c>
+      <c r="T5" s="6">
+        <v>244</v>
+      </c>
+      <c r="U5" s="6">
+        <v>245</v>
+      </c>
+      <c r="V5" s="6">
+        <v>246</v>
+      </c>
+      <c r="W5" s="6">
+        <v>247</v>
+      </c>
+      <c r="X5" s="6">
+        <v>248</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>249</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>250</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>251</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>252</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>253</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>254</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>255</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>256</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>257</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>258</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>259</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
       <c r="BB5">
         <v>2</v>
       </c>
@@ -1049,125 +1166,131 @@
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
-        <v>199</v>
-      </c>
-      <c r="E6" s="7">
-        <v>198</v>
-      </c>
-      <c r="F6" s="7">
-        <v>197</v>
-      </c>
-      <c r="G6" s="7">
-        <v>196</v>
-      </c>
-      <c r="H6" s="7">
-        <v>195</v>
-      </c>
-      <c r="I6" s="7">
-        <v>194</v>
-      </c>
-      <c r="J6" s="7">
-        <v>193</v>
-      </c>
-      <c r="K6" s="7">
-        <v>192</v>
-      </c>
-      <c r="L6" s="7">
-        <v>191</v>
-      </c>
-      <c r="M6" s="7">
-        <v>190</v>
-      </c>
-      <c r="N6" s="7">
-        <v>189</v>
-      </c>
-      <c r="O6" s="7">
-        <v>188</v>
-      </c>
-      <c r="P6" s="7">
-        <v>187</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>186</v>
-      </c>
-      <c r="R6" s="7">
-        <v>185</v>
-      </c>
-      <c r="S6" s="7">
-        <v>184</v>
-      </c>
-      <c r="T6" s="7">
-        <v>183</v>
-      </c>
-      <c r="U6" s="7">
-        <v>182</v>
-      </c>
-      <c r="V6" s="7">
-        <v>181</v>
-      </c>
-      <c r="W6" s="7">
-        <v>180</v>
-      </c>
-      <c r="X6" s="7">
-        <v>179</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>178</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>177</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>176</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>175</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>174</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>173</v>
-      </c>
-      <c r="AE6" s="7">
-        <v>172</v>
-      </c>
-      <c r="AF6" s="7">
-        <v>171</v>
-      </c>
-      <c r="AG6" s="7">
-        <v>170</v>
-      </c>
-      <c r="AH6" s="7">
-        <v>169</v>
-      </c>
-      <c r="AI6" s="7">
-        <v>168</v>
-      </c>
-      <c r="AJ6" s="7">
-        <v>167</v>
-      </c>
-      <c r="AK6" s="7">
-        <v>166</v>
-      </c>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>232</v>
+      </c>
+      <c r="G6" s="6">
+        <v>231</v>
+      </c>
+      <c r="H6" s="6">
+        <v>230</v>
+      </c>
+      <c r="I6" s="6">
+        <v>229</v>
+      </c>
+      <c r="J6" s="6">
+        <v>228</v>
+      </c>
+      <c r="K6" s="6">
+        <v>227</v>
+      </c>
+      <c r="L6" s="6">
+        <v>226</v>
+      </c>
+      <c r="M6" s="6">
+        <v>225</v>
+      </c>
+      <c r="N6" s="6">
+        <v>224</v>
+      </c>
+      <c r="O6" s="6">
+        <v>223</v>
+      </c>
+      <c r="P6" s="6">
+        <v>222</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>221</v>
+      </c>
+      <c r="R6" s="6">
+        <v>220</v>
+      </c>
+      <c r="S6" s="6">
+        <v>219</v>
+      </c>
+      <c r="T6" s="6">
+        <v>218</v>
+      </c>
+      <c r="U6" s="6">
+        <v>217</v>
+      </c>
+      <c r="V6" s="6">
+        <v>216</v>
+      </c>
+      <c r="W6" s="6">
+        <v>215</v>
+      </c>
+      <c r="X6" s="6">
+        <v>214</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>213</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>212</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>211</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>210</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>209</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>208</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>207</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>206</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>205</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>204</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>203</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>202</v>
+      </c>
+      <c r="AK6" s="6">
+        <v>201</v>
+      </c>
+      <c r="AL6" s="6">
+        <v>200</v>
+      </c>
+      <c r="AM6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
       <c r="BB6">
         <v>3</v>
       </c>
@@ -1184,131 +1307,131 @@
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
-        <v>129</v>
-      </c>
-      <c r="D7" s="7">
-        <v>130</v>
-      </c>
-      <c r="E7" s="7">
-        <v>131</v>
-      </c>
-      <c r="F7" s="7">
-        <v>132</v>
-      </c>
-      <c r="G7" s="7">
-        <v>133</v>
-      </c>
-      <c r="H7" s="7">
-        <v>134</v>
-      </c>
-      <c r="I7" s="7">
-        <v>135</v>
-      </c>
-      <c r="J7" s="7">
-        <v>136</v>
-      </c>
-      <c r="K7" s="7">
-        <v>137</v>
-      </c>
-      <c r="L7" s="7">
-        <v>138</v>
-      </c>
-      <c r="M7" s="7">
-        <v>139</v>
-      </c>
-      <c r="N7" s="7">
-        <v>140</v>
-      </c>
-      <c r="O7" s="7">
-        <v>141</v>
-      </c>
-      <c r="P7" s="7">
-        <v>142</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>143</v>
-      </c>
-      <c r="R7" s="7">
-        <v>144</v>
-      </c>
-      <c r="S7" s="7">
-        <v>145</v>
-      </c>
-      <c r="T7" s="7">
-        <v>146</v>
-      </c>
-      <c r="U7" s="7">
-        <v>147</v>
-      </c>
-      <c r="V7" s="7">
-        <v>148</v>
-      </c>
-      <c r="W7" s="7">
-        <v>149</v>
-      </c>
-      <c r="X7" s="7">
-        <v>150</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>151</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>152</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>153</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>154</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>155</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>156</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>157</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>158</v>
-      </c>
-      <c r="AG7" s="7">
-        <v>159</v>
-      </c>
-      <c r="AH7" s="7">
-        <v>160</v>
-      </c>
-      <c r="AI7" s="7">
-        <v>161</v>
-      </c>
-      <c r="AJ7" s="7">
-        <v>162</v>
-      </c>
-      <c r="AK7" s="7">
-        <v>163</v>
-      </c>
-      <c r="AL7" s="7">
-        <v>164</v>
-      </c>
-      <c r="AM7" s="7">
-        <v>165</v>
-      </c>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
+      <c r="C7" s="6">
+        <v>92</v>
+      </c>
+      <c r="D7" s="6">
+        <v>93</v>
+      </c>
+      <c r="E7" s="6">
+        <v>94</v>
+      </c>
+      <c r="F7" s="6">
+        <v>95</v>
+      </c>
+      <c r="G7" s="6">
+        <v>96</v>
+      </c>
+      <c r="H7" s="6">
+        <v>97</v>
+      </c>
+      <c r="I7" s="6">
+        <v>98</v>
+      </c>
+      <c r="J7" s="6">
+        <v>99</v>
+      </c>
+      <c r="K7" s="6">
+        <v>100</v>
+      </c>
+      <c r="L7" s="6">
+        <v>101</v>
+      </c>
+      <c r="M7" s="6">
+        <v>102</v>
+      </c>
+      <c r="N7" s="6">
+        <v>103</v>
+      </c>
+      <c r="O7" s="6">
+        <v>104</v>
+      </c>
+      <c r="P7" s="6">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>106</v>
+      </c>
+      <c r="R7" s="6">
+        <v>107</v>
+      </c>
+      <c r="S7" s="6">
+        <v>108</v>
+      </c>
+      <c r="T7" s="6">
+        <v>109</v>
+      </c>
+      <c r="U7" s="6">
+        <v>110</v>
+      </c>
+      <c r="V7" s="6">
+        <v>111</v>
+      </c>
+      <c r="W7" s="6">
+        <v>112</v>
+      </c>
+      <c r="X7" s="6">
+        <v>113</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>114</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>115</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>116</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>117</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>118</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>119</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>120</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>121</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>122</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>123</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>124</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>125</v>
+      </c>
+      <c r="AK7" s="6">
+        <v>126</v>
+      </c>
+      <c r="AL7" s="6">
+        <v>127</v>
+      </c>
+      <c r="AM7" s="6">
+        <v>128</v>
+      </c>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
       <c r="BB7">
         <v>4</v>
       </c>
@@ -1325,99 +1448,131 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7">
-        <v>70</v>
-      </c>
-      <c r="E8" s="7">
-        <v>69</v>
-      </c>
-      <c r="F8" s="7">
-        <v>68</v>
-      </c>
-      <c r="G8" s="7">
-        <v>67</v>
-      </c>
-      <c r="H8" s="7">
-        <v>66</v>
-      </c>
-      <c r="I8" s="7">
-        <v>65</v>
-      </c>
-      <c r="J8" s="7">
-        <v>64</v>
-      </c>
-      <c r="K8" s="7">
-        <v>63</v>
-      </c>
-      <c r="L8" s="7">
-        <v>62</v>
-      </c>
-      <c r="M8" s="7">
-        <v>61</v>
-      </c>
-      <c r="N8" s="7">
-        <v>60</v>
-      </c>
-      <c r="O8" s="7">
-        <v>59</v>
-      </c>
-      <c r="P8" s="7">
-        <v>58</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>57</v>
-      </c>
-      <c r="R8" s="7">
-        <v>56</v>
-      </c>
-      <c r="S8" s="7">
-        <v>55</v>
-      </c>
-      <c r="T8" s="7">
-        <v>54</v>
-      </c>
-      <c r="U8" s="7">
-        <v>53</v>
-      </c>
-      <c r="V8" s="7">
-        <v>52</v>
-      </c>
-      <c r="W8" s="7">
-        <v>51</v>
-      </c>
-      <c r="X8" s="7">
-        <v>50</v>
-      </c>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="7"/>
-      <c r="AT8" s="7"/>
-      <c r="AU8" s="7"/>
-      <c r="AV8" s="7"/>
-      <c r="AW8" s="7"/>
-      <c r="AX8" s="7"/>
-      <c r="AY8" s="7"/>
-      <c r="AZ8" s="7"/>
-      <c r="BA8" s="7"/>
+      <c r="C8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="6">
+        <v>91</v>
+      </c>
+      <c r="S8" s="6">
+        <v>90</v>
+      </c>
+      <c r="T8" s="6">
+        <v>89</v>
+      </c>
+      <c r="U8" s="6">
+        <v>88</v>
+      </c>
+      <c r="V8" s="6">
+        <v>87</v>
+      </c>
+      <c r="W8" s="6">
+        <v>86</v>
+      </c>
+      <c r="X8" s="6">
+        <v>85</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>84</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>83</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>82</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>81</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>80</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>79</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>78</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>77</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>76</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>75</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>74</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>73</v>
+      </c>
+      <c r="AK8" s="6">
+        <v>72</v>
+      </c>
+      <c r="AL8" s="6">
+        <v>71</v>
+      </c>
+      <c r="AM8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
       <c r="BB8">
         <v>5</v>
       </c>
@@ -1434,87 +1589,131 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
-        <v>35</v>
-      </c>
-      <c r="G9" s="7">
-        <v>36</v>
-      </c>
-      <c r="H9" s="7">
-        <v>37</v>
-      </c>
-      <c r="I9" s="7">
-        <v>38</v>
-      </c>
-      <c r="J9" s="7">
-        <v>39</v>
-      </c>
-      <c r="K9" s="7">
-        <v>40</v>
-      </c>
-      <c r="L9" s="7">
-        <v>41</v>
-      </c>
-      <c r="M9" s="7">
-        <v>42</v>
-      </c>
-      <c r="N9" s="7">
-        <v>43</v>
-      </c>
-      <c r="O9" s="7">
-        <v>44</v>
-      </c>
-      <c r="P9" s="7">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>46</v>
-      </c>
-      <c r="R9" s="7">
-        <v>47</v>
-      </c>
-      <c r="S9" s="7">
-        <v>48</v>
-      </c>
-      <c r="T9" s="7">
-        <v>49</v>
-      </c>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="7"/>
-      <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="6">
+        <v>14</v>
+      </c>
+      <c r="W9" s="6">
+        <v>15</v>
+      </c>
+      <c r="X9" s="6">
+        <v>16</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>17</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>18</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>19</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>20</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>21</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>22</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>23</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>24</v>
+      </c>
+      <c r="AG9" s="6">
+        <v>25</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>26</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>27</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>28</v>
+      </c>
+      <c r="AK9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
       <c r="BB9">
         <v>6</v>
       </c>
@@ -1531,77 +1730,131 @@
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
-        <v>34</v>
-      </c>
-      <c r="H10" s="7">
-        <v>33</v>
-      </c>
-      <c r="I10" s="7">
-        <v>32</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7">
-        <v>6</v>
-      </c>
-      <c r="L10" s="7">
-        <v>5</v>
-      </c>
-      <c r="M10" s="7">
-        <v>4</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3</v>
-      </c>
-      <c r="O10" s="7">
+      <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7"/>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
+      <c r="D10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>13</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>12</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>11</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>9</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>8</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>7</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>31</v>
+      </c>
+      <c r="AI10" s="6">
+        <v>30</v>
+      </c>
+      <c r="AJ10" s="6">
+        <v>29</v>
+      </c>
+      <c r="AK10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
       <c r="BB10">
         <v>7</v>
       </c>
@@ -1618,57 +1871,57 @@
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="8"/>
       <c r="BB11">
         <v>8</v>
       </c>
@@ -1685,57 +1938,57 @@
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
       <c r="BB12">
         <v>9</v>
       </c>
@@ -1752,57 +2005,57 @@
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
-      <c r="AS13" s="7"/>
-      <c r="AT13" s="7"/>
-      <c r="AU13" s="7"/>
-      <c r="AV13" s="7"/>
-      <c r="AW13" s="7"/>
-      <c r="AX13" s="7"/>
-      <c r="AY13" s="7"/>
-      <c r="AZ13" s="7"/>
-      <c r="BA13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
       <c r="BB13">
         <v>10</v>
       </c>
@@ -1819,57 +2072,57 @@
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
-      <c r="AQ14" s="7"/>
-      <c r="AR14" s="7"/>
-      <c r="AS14" s="7"/>
-      <c r="AT14" s="7"/>
-      <c r="AU14" s="7"/>
-      <c r="AV14" s="7"/>
-      <c r="AW14" s="7"/>
-      <c r="AX14" s="7"/>
-      <c r="AY14" s="7"/>
-      <c r="AZ14" s="7"/>
-      <c r="BA14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="8"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="8"/>
       <c r="BB14">
         <v>11</v>
       </c>
@@ -1886,57 +2139,57 @@
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7"/>
-      <c r="AM15" s="7"/>
-      <c r="AN15" s="7"/>
-      <c r="AO15" s="7"/>
-      <c r="AP15" s="7"/>
-      <c r="AQ15" s="7"/>
-      <c r="AR15" s="7"/>
-      <c r="AS15" s="7"/>
-      <c r="AT15" s="7"/>
-      <c r="AU15" s="7"/>
-      <c r="AV15" s="7"/>
-      <c r="AW15" s="7"/>
-      <c r="AX15" s="7"/>
-      <c r="AY15" s="7"/>
-      <c r="AZ15" s="7"/>
-      <c r="BA15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="8"/>
+      <c r="AV15" s="8"/>
+      <c r="AW15" s="8"/>
+      <c r="AX15" s="8"/>
+      <c r="AY15" s="8"/>
+      <c r="AZ15" s="8"/>
+      <c r="BA15" s="8"/>
       <c r="BB15">
         <v>12</v>
       </c>
@@ -1953,57 +2206,57 @@
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="7"/>
-      <c r="AO16" s="7"/>
-      <c r="AP16" s="7"/>
-      <c r="AQ16" s="7"/>
-      <c r="AR16" s="7"/>
-      <c r="AS16" s="7"/>
-      <c r="AT16" s="7"/>
-      <c r="AU16" s="7"/>
-      <c r="AV16" s="7"/>
-      <c r="AW16" s="7"/>
-      <c r="AX16" s="7"/>
-      <c r="AY16" s="7"/>
-      <c r="AZ16" s="7"/>
-      <c r="BA16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="8"/>
+      <c r="AU16" s="8"/>
+      <c r="AV16" s="8"/>
+      <c r="AW16" s="8"/>
+      <c r="AX16" s="8"/>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="8"/>
+      <c r="BA16" s="8"/>
       <c r="BB16">
         <v>13</v>
       </c>
@@ -2020,57 +2273,57 @@
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7"/>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="7"/>
-      <c r="AO17" s="7"/>
-      <c r="AP17" s="7"/>
-      <c r="AQ17" s="7"/>
-      <c r="AR17" s="7"/>
-      <c r="AS17" s="7"/>
-      <c r="AT17" s="7"/>
-      <c r="AU17" s="7"/>
-      <c r="AV17" s="7"/>
-      <c r="AW17" s="7"/>
-      <c r="AX17" s="7"/>
-      <c r="AY17" s="7"/>
-      <c r="AZ17" s="7"/>
-      <c r="BA17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="8"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="8"/>
+      <c r="AV17" s="8"/>
+      <c r="AW17" s="8"/>
+      <c r="AX17" s="8"/>
+      <c r="AY17" s="8"/>
+      <c r="AZ17" s="8"/>
+      <c r="BA17" s="8"/>
       <c r="BB17">
         <v>14</v>
       </c>
@@ -2087,91 +2340,91 @@
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="R18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="S18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="T18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="U18" s="7" t="s">
+      <c r="U18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="V18" s="7" t="s">
+      <c r="V18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W18" s="7" t="s">
+      <c r="W18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="X18" s="7" t="s">
+      <c r="X18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7"/>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="7"/>
-      <c r="AO18" s="7"/>
-      <c r="AP18" s="7"/>
-      <c r="AQ18" s="7"/>
-      <c r="AR18" s="7"/>
-      <c r="AS18" s="7"/>
-      <c r="AT18" s="7"/>
-      <c r="AU18" s="7"/>
-      <c r="AV18" s="7"/>
-      <c r="AW18" s="7"/>
-      <c r="AX18" s="7"/>
-      <c r="AY18" s="7"/>
-      <c r="AZ18" s="7"/>
-      <c r="BA18" s="7"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="8"/>
+      <c r="AV18" s="8"/>
+      <c r="AW18" s="8"/>
+      <c r="AX18" s="8"/>
+      <c r="AY18" s="8"/>
+      <c r="AZ18" s="8"/>
+      <c r="BA18" s="8"/>
       <c r="BB18">
         <v>15</v>
       </c>
@@ -2188,91 +2441,91 @@
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="P19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Q19" s="7" t="s">
+      <c r="Q19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S19" s="7" t="s">
+      <c r="S19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="T19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="U19" s="7" t="s">
+      <c r="U19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="V19" s="7" t="s">
+      <c r="V19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W19" s="7" t="s">
+      <c r="W19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="X19" s="7" t="s">
+      <c r="X19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7"/>
-      <c r="AM19" s="7"/>
-      <c r="AN19" s="7"/>
-      <c r="AO19" s="7"/>
-      <c r="AP19" s="7"/>
-      <c r="AQ19" s="7"/>
-      <c r="AR19" s="7"/>
-      <c r="AS19" s="7"/>
-      <c r="AT19" s="7"/>
-      <c r="AU19" s="7"/>
-      <c r="AV19" s="7"/>
-      <c r="AW19" s="7"/>
-      <c r="AX19" s="7"/>
-      <c r="AY19" s="7"/>
-      <c r="AZ19" s="7"/>
-      <c r="BA19" s="7"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="8"/>
+      <c r="AV19" s="8"/>
+      <c r="AW19" s="8"/>
+      <c r="AX19" s="8"/>
+      <c r="AY19" s="8"/>
+      <c r="AZ19" s="8"/>
+      <c r="BA19" s="8"/>
       <c r="BB19">
         <v>16</v>
       </c>
@@ -2287,7 +2540,7 @@
     </row>
     <row r="20" spans="2:56" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:56" hidden="1" x14ac:dyDescent="0.2">
@@ -2941,39 +3194,39 @@
       </c>
       <c r="Q30" t="str">
         <f t="shared" si="41"/>
-        <v>336</v>
+        <v>999</v>
       </c>
       <c r="R30" t="str">
         <f t="shared" si="41"/>
-        <v>337</v>
+        <v>999</v>
       </c>
       <c r="S30" t="str">
         <f t="shared" si="41"/>
-        <v>338</v>
+        <v>999</v>
       </c>
       <c r="T30" t="str">
         <f t="shared" si="41"/>
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="U30" t="str">
         <f t="shared" si="41"/>
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" si="41"/>
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="W30" t="str">
         <f t="shared" si="41"/>
-        <v>999</v>
+        <v>333</v>
       </c>
       <c r="X30" t="str">
         <f t="shared" si="41"/>
-        <v>999</v>
+        <v>334</v>
       </c>
       <c r="Y30" t="str">
         <f t="shared" si="41"/>
-        <v>999</v>
+        <v>335</v>
       </c>
       <c r="Z30" t="str">
         <f t="shared" si="41"/>
@@ -3126,87 +3379,87 @@
       </c>
       <c r="K31" t="str">
         <f t="shared" si="42"/>
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="42"/>
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="42"/>
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="42"/>
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="O31" t="str">
         <f t="shared" si="42"/>
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="P31" t="str">
         <f t="shared" si="42"/>
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="42"/>
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="R31" t="str">
         <f t="shared" si="42"/>
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="S31" t="str">
         <f t="shared" si="42"/>
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="T31" t="str">
         <f t="shared" si="42"/>
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="U31" t="str">
         <f t="shared" si="42"/>
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="V31" t="str">
         <f t="shared" si="42"/>
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="W31" t="str">
         <f t="shared" si="42"/>
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="X31" t="str">
         <f t="shared" si="42"/>
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="Y31" t="str">
         <f t="shared" si="42"/>
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="Z31" t="str">
         <f t="shared" si="42"/>
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="AA31" t="str">
         <f t="shared" si="42"/>
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="AB31" t="str">
         <f t="shared" si="42"/>
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="AC31" t="str">
         <f t="shared" si="42"/>
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="AD31" t="str">
         <f t="shared" si="42"/>
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="AE31" t="str">
         <f t="shared" si="42"/>
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="AF31" t="str">
         <f t="shared" si="42"/>
@@ -3319,119 +3572,119 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="43"/>
-        <v>260</v>
+        <v>999</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="43"/>
-        <v>261</v>
+        <v>999</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="43"/>
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="43"/>
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="43"/>
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="43"/>
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="43"/>
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="43"/>
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="O32" t="str">
         <f t="shared" si="43"/>
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="P32" t="str">
         <f t="shared" si="43"/>
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="43"/>
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="R32" t="str">
         <f t="shared" si="43"/>
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="S32" t="str">
         <f t="shared" si="43"/>
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="T32" t="str">
         <f t="shared" si="43"/>
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="43"/>
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="V32" t="str">
         <f t="shared" si="43"/>
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="W32" t="str">
         <f t="shared" si="43"/>
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="X32" t="str">
         <f t="shared" si="43"/>
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="Y32" t="str">
         <f t="shared" si="43"/>
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="Z32" t="str">
         <f t="shared" si="43"/>
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="AA32" t="str">
         <f t="shared" si="43"/>
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="AB32" t="str">
         <f t="shared" si="43"/>
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="AC32" t="str">
         <f t="shared" si="43"/>
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="AD32" t="str">
         <f t="shared" si="43"/>
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="AE32" t="str">
         <f t="shared" si="43"/>
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="AF32" t="str">
         <f t="shared" si="43"/>
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="AG32" t="str">
         <f t="shared" si="43"/>
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="AH32" t="str">
         <f t="shared" si="43"/>
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="AI32" t="str">
         <f t="shared" si="43"/>
-        <v>999</v>
+        <v>259</v>
       </c>
       <c r="AJ32" t="str">
         <f t="shared" si="43"/>
@@ -3516,143 +3769,143 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="44"/>
-        <v>199</v>
+        <v>999</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="44"/>
-        <v>198</v>
+        <v>999</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="44"/>
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="44"/>
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="44"/>
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="44"/>
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="44"/>
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="44"/>
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="44"/>
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="44"/>
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="44"/>
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="O33" t="str">
         <f t="shared" si="44"/>
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="P33" t="str">
         <f t="shared" si="44"/>
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="44"/>
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="R33" t="str">
         <f t="shared" si="44"/>
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="S33" t="str">
         <f t="shared" si="44"/>
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="T33" t="str">
         <f t="shared" si="44"/>
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="U33" t="str">
         <f t="shared" si="44"/>
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="V33" t="str">
         <f t="shared" si="44"/>
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="W33" t="str">
         <f t="shared" si="44"/>
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="X33" t="str">
         <f t="shared" si="44"/>
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="Y33" t="str">
         <f t="shared" si="44"/>
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="Z33" t="str">
         <f t="shared" si="44"/>
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="AA33" t="str">
         <f t="shared" si="44"/>
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="AB33" t="str">
         <f t="shared" si="44"/>
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="AC33" t="str">
         <f t="shared" si="44"/>
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="AD33" t="str">
         <f t="shared" si="44"/>
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="AE33" t="str">
         <f t="shared" si="44"/>
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="AF33" t="str">
         <f t="shared" si="44"/>
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="AG33" t="str">
         <f t="shared" si="44"/>
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="AH33" t="str">
         <f t="shared" si="44"/>
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="AI33" t="str">
         <f t="shared" si="44"/>
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="AJ33" t="str">
         <f t="shared" si="44"/>
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="AK33" t="str">
         <f t="shared" si="44"/>
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="AL33" t="str">
         <f t="shared" si="44"/>
-        <v>999</v>
+        <v>200</v>
       </c>
       <c r="AM33" t="str">
         <f t="shared" si="44"/>
@@ -3721,151 +3974,151 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ref="C34:BA34" si="45">IF(C7="","999",TEXT(C7,0))</f>
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="45"/>
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="45"/>
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="45"/>
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="45"/>
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="45"/>
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="45"/>
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="45"/>
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="45"/>
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" si="45"/>
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="45"/>
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="45"/>
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="O34" t="str">
         <f t="shared" si="45"/>
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="P34" t="str">
         <f t="shared" si="45"/>
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="Q34" t="str">
         <f t="shared" si="45"/>
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="R34" t="str">
         <f t="shared" si="45"/>
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="S34" t="str">
         <f t="shared" si="45"/>
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="T34" t="str">
         <f t="shared" si="45"/>
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="U34" t="str">
         <f t="shared" si="45"/>
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" si="45"/>
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="W34" t="str">
         <f t="shared" si="45"/>
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="X34" t="str">
         <f t="shared" si="45"/>
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="Y34" t="str">
         <f t="shared" si="45"/>
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="Z34" t="str">
         <f t="shared" si="45"/>
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="AA34" t="str">
         <f t="shared" si="45"/>
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="AB34" t="str">
         <f t="shared" si="45"/>
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="AC34" t="str">
         <f t="shared" si="45"/>
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="AD34" t="str">
         <f t="shared" si="45"/>
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="AE34" t="str">
         <f t="shared" si="45"/>
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="AF34" t="str">
         <f t="shared" si="45"/>
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="AG34" t="str">
         <f t="shared" si="45"/>
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="AH34" t="str">
         <f t="shared" si="45"/>
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="AI34" t="str">
         <f t="shared" si="45"/>
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="AJ34" t="str">
         <f t="shared" si="45"/>
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="AK34" t="str">
         <f t="shared" si="45"/>
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="AL34" t="str">
         <f t="shared" si="45"/>
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="AM34" t="str">
         <f t="shared" si="45"/>
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="AN34" t="str">
         <f t="shared" si="45"/>
@@ -3934,143 +4187,143 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="46"/>
-        <v>70</v>
+        <v>999</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="46"/>
-        <v>69</v>
+        <v>999</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="46"/>
-        <v>68</v>
+        <v>999</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="46"/>
-        <v>67</v>
+        <v>999</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="46"/>
-        <v>66</v>
+        <v>999</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="46"/>
-        <v>65</v>
+        <v>999</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="46"/>
-        <v>64</v>
+        <v>999</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="46"/>
-        <v>63</v>
+        <v>999</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="46"/>
-        <v>62</v>
+        <v>999</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="46"/>
-        <v>61</v>
+        <v>999</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="46"/>
-        <v>60</v>
+        <v>999</v>
       </c>
       <c r="O35" t="str">
         <f t="shared" si="46"/>
-        <v>59</v>
+        <v>999</v>
       </c>
       <c r="P35" t="str">
         <f t="shared" si="46"/>
-        <v>58</v>
+        <v>999</v>
       </c>
       <c r="Q35" t="str">
         <f t="shared" si="46"/>
-        <v>57</v>
+        <v>999</v>
       </c>
       <c r="R35" t="str">
         <f t="shared" si="46"/>
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="S35" t="str">
         <f t="shared" si="46"/>
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="T35" t="str">
         <f t="shared" si="46"/>
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="U35" t="str">
         <f t="shared" si="46"/>
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" si="46"/>
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="W35" t="str">
         <f t="shared" si="46"/>
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="X35" t="str">
         <f t="shared" si="46"/>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="Y35" t="str">
         <f t="shared" si="46"/>
-        <v>999</v>
+        <v>84</v>
       </c>
       <c r="Z35" t="str">
         <f t="shared" si="46"/>
-        <v>999</v>
+        <v>83</v>
       </c>
       <c r="AA35" t="str">
         <f t="shared" si="46"/>
-        <v>999</v>
+        <v>82</v>
       </c>
       <c r="AB35" t="str">
         <f t="shared" si="46"/>
-        <v>999</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="str">
         <f t="shared" si="46"/>
-        <v>999</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="str">
         <f t="shared" si="46"/>
-        <v>999</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="str">
         <f t="shared" si="46"/>
-        <v>999</v>
+        <v>78</v>
       </c>
       <c r="AF35" t="str">
         <f t="shared" si="46"/>
-        <v>999</v>
+        <v>77</v>
       </c>
       <c r="AG35" t="str">
         <f t="shared" si="46"/>
-        <v>999</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="str">
         <f t="shared" si="46"/>
-        <v>999</v>
+        <v>75</v>
       </c>
       <c r="AI35" t="str">
         <f t="shared" si="46"/>
-        <v>999</v>
+        <v>74</v>
       </c>
       <c r="AJ35" t="str">
         <f t="shared" si="46"/>
-        <v>999</v>
+        <v>73</v>
       </c>
       <c r="AK35" t="str">
         <f t="shared" si="46"/>
-        <v>999</v>
+        <v>72</v>
       </c>
       <c r="AL35" t="str">
         <f t="shared" si="46"/>
-        <v>999</v>
+        <v>71</v>
       </c>
       <c r="AM35" t="str">
         <f t="shared" si="46"/>
@@ -4151,63 +4404,63 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="47"/>
-        <v>35</v>
+        <v>999</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="47"/>
-        <v>36</v>
+        <v>999</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="47"/>
-        <v>37</v>
+        <v>999</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="47"/>
-        <v>38</v>
+        <v>999</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="47"/>
-        <v>39</v>
+        <v>999</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="47"/>
-        <v>40</v>
+        <v>999</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="47"/>
-        <v>41</v>
+        <v>999</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" si="47"/>
-        <v>42</v>
+        <v>999</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="47"/>
-        <v>43</v>
+        <v>999</v>
       </c>
       <c r="O36" t="str">
         <f t="shared" si="47"/>
-        <v>44</v>
+        <v>999</v>
       </c>
       <c r="P36" t="str">
         <f t="shared" si="47"/>
-        <v>45</v>
+        <v>999</v>
       </c>
       <c r="Q36" t="str">
         <f t="shared" si="47"/>
-        <v>46</v>
+        <v>999</v>
       </c>
       <c r="R36" t="str">
         <f t="shared" si="47"/>
-        <v>47</v>
+        <v>999</v>
       </c>
       <c r="S36" t="str">
         <f t="shared" si="47"/>
-        <v>48</v>
+        <v>999</v>
       </c>
       <c r="T36" t="str">
         <f t="shared" si="47"/>
-        <v>49</v>
+        <v>999</v>
       </c>
       <c r="U36" t="str">
         <f t="shared" si="47"/>
@@ -4215,63 +4468,63 @@
       </c>
       <c r="V36" t="str">
         <f t="shared" si="47"/>
-        <v>999</v>
+        <v>14</v>
       </c>
       <c r="W36" t="str">
         <f t="shared" si="47"/>
-        <v>999</v>
+        <v>15</v>
       </c>
       <c r="X36" t="str">
         <f t="shared" si="47"/>
-        <v>999</v>
+        <v>16</v>
       </c>
       <c r="Y36" t="str">
         <f t="shared" si="47"/>
-        <v>999</v>
+        <v>17</v>
       </c>
       <c r="Z36" t="str">
         <f t="shared" si="47"/>
-        <v>999</v>
+        <v>18</v>
       </c>
       <c r="AA36" t="str">
         <f t="shared" si="47"/>
-        <v>999</v>
+        <v>19</v>
       </c>
       <c r="AB36" t="str">
         <f t="shared" si="47"/>
-        <v>999</v>
+        <v>20</v>
       </c>
       <c r="AC36" t="str">
         <f t="shared" si="47"/>
-        <v>999</v>
+        <v>21</v>
       </c>
       <c r="AD36" t="str">
         <f t="shared" si="47"/>
-        <v>999</v>
+        <v>22</v>
       </c>
       <c r="AE36" t="str">
         <f t="shared" si="47"/>
-        <v>999</v>
+        <v>23</v>
       </c>
       <c r="AF36" t="str">
         <f t="shared" si="47"/>
-        <v>999</v>
+        <v>24</v>
       </c>
       <c r="AG36" t="str">
         <f t="shared" si="47"/>
-        <v>999</v>
+        <v>25</v>
       </c>
       <c r="AH36" t="str">
         <f t="shared" si="47"/>
-        <v>999</v>
+        <v>26</v>
       </c>
       <c r="AI36" t="str">
         <f t="shared" si="47"/>
-        <v>999</v>
+        <v>27</v>
       </c>
       <c r="AJ36" t="str">
         <f t="shared" si="47"/>
-        <v>999</v>
+        <v>28</v>
       </c>
       <c r="AK36" t="str">
         <f t="shared" si="47"/>
@@ -4364,15 +4617,15 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="48"/>
-        <v>34</v>
+        <v>999</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="48"/>
-        <v>33</v>
+        <v>999</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="48"/>
-        <v>32</v>
+        <v>999</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="48"/>
@@ -4380,31 +4633,31 @@
       </c>
       <c r="K37" t="str">
         <f t="shared" si="48"/>
-        <v>6</v>
+        <v>999</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="48"/>
-        <v>5</v>
+        <v>999</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" si="48"/>
-        <v>4</v>
+        <v>999</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="48"/>
-        <v>3</v>
+        <v>999</v>
       </c>
       <c r="O37" t="str">
         <f t="shared" si="48"/>
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="P37" t="str">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="Q37" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="R37" t="str">
         <f t="shared" si="48"/>
@@ -4440,31 +4693,31 @@
       </c>
       <c r="Z37" t="str">
         <f t="shared" si="48"/>
-        <v>999</v>
+        <v>13</v>
       </c>
       <c r="AA37" t="str">
         <f t="shared" si="48"/>
-        <v>999</v>
+        <v>12</v>
       </c>
       <c r="AB37" t="str">
         <f t="shared" si="48"/>
-        <v>999</v>
+        <v>11</v>
       </c>
       <c r="AC37" t="str">
         <f t="shared" si="48"/>
-        <v>999</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="str">
         <f t="shared" si="48"/>
-        <v>999</v>
+        <v>9</v>
       </c>
       <c r="AE37" t="str">
         <f t="shared" si="48"/>
-        <v>999</v>
+        <v>8</v>
       </c>
       <c r="AF37" t="str">
         <f t="shared" si="48"/>
-        <v>999</v>
+        <v>7</v>
       </c>
       <c r="AG37" t="str">
         <f t="shared" si="48"/>
@@ -4472,15 +4725,15 @@
       </c>
       <c r="AH37" t="str">
         <f t="shared" si="48"/>
-        <v>999</v>
+        <v>31</v>
       </c>
       <c r="AI37" t="str">
         <f t="shared" si="48"/>
-        <v>999</v>
+        <v>30</v>
       </c>
       <c r="AJ37" t="str">
         <f t="shared" si="48"/>
-        <v>999</v>
+        <v>29</v>
       </c>
       <c r="AK37" t="str">
         <f t="shared" si="48"/>
@@ -6651,39 +6904,39 @@
       </c>
       <c r="Q49" t="str">
         <f t="shared" si="58"/>
-        <v>336,</v>
+        <v>999,</v>
       </c>
       <c r="R49" t="str">
         <f t="shared" si="58"/>
-        <v>337,</v>
+        <v>999,</v>
       </c>
       <c r="S49" t="str">
         <f t="shared" si="58"/>
-        <v>338,</v>
+        <v>999,</v>
       </c>
       <c r="T49" t="str">
         <f t="shared" si="58"/>
-        <v>339,</v>
+        <v>330,</v>
       </c>
       <c r="U49" t="str">
         <f t="shared" si="58"/>
-        <v>340,</v>
+        <v>331,</v>
       </c>
       <c r="V49" t="str">
         <f t="shared" si="58"/>
-        <v>341,</v>
+        <v>332,</v>
       </c>
       <c r="W49" t="str">
         <f t="shared" si="58"/>
-        <v>999,</v>
+        <v>333,</v>
       </c>
       <c r="X49" t="str">
         <f t="shared" si="58"/>
-        <v>999,</v>
+        <v>334,</v>
       </c>
       <c r="Y49" t="str">
         <f t="shared" si="58"/>
-        <v>999,</v>
+        <v>335,</v>
       </c>
       <c r="Z49" t="str">
         <f t="shared" si="58"/>
@@ -6848,87 +7101,87 @@
       </c>
       <c r="K50" t="str">
         <f t="shared" si="59"/>
-        <v>308,</v>
+        <v>329,</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="59"/>
-        <v>307,</v>
+        <v>328,</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" si="59"/>
-        <v>306,</v>
+        <v>327,</v>
       </c>
       <c r="N50" t="str">
         <f t="shared" si="59"/>
-        <v>305,</v>
+        <v>326,</v>
       </c>
       <c r="O50" t="str">
         <f t="shared" si="59"/>
-        <v>304,</v>
+        <v>325,</v>
       </c>
       <c r="P50" t="str">
         <f t="shared" si="59"/>
-        <v>303,</v>
+        <v>324,</v>
       </c>
       <c r="Q50" t="str">
         <f t="shared" si="59"/>
-        <v>302,</v>
+        <v>323,</v>
       </c>
       <c r="R50" t="str">
         <f t="shared" si="59"/>
-        <v>301,</v>
+        <v>322,</v>
       </c>
       <c r="S50" t="str">
         <f t="shared" si="58"/>
-        <v>300,</v>
+        <v>321,</v>
       </c>
       <c r="T50" t="str">
         <f t="shared" si="58"/>
-        <v>299,</v>
+        <v>320,</v>
       </c>
       <c r="U50" t="str">
         <f t="shared" si="58"/>
-        <v>298,</v>
+        <v>319,</v>
       </c>
       <c r="V50" t="str">
         <f t="shared" si="58"/>
-        <v>297,</v>
+        <v>318,</v>
       </c>
       <c r="W50" t="str">
         <f t="shared" si="58"/>
-        <v>296,</v>
+        <v>317,</v>
       </c>
       <c r="X50" t="str">
         <f t="shared" si="58"/>
-        <v>295,</v>
+        <v>316,</v>
       </c>
       <c r="Y50" t="str">
         <f t="shared" si="58"/>
-        <v>294,</v>
+        <v>315,</v>
       </c>
       <c r="Z50" t="str">
         <f t="shared" si="58"/>
-        <v>293,</v>
+        <v>314,</v>
       </c>
       <c r="AA50" t="str">
         <f t="shared" si="58"/>
-        <v>292,</v>
+        <v>313,</v>
       </c>
       <c r="AB50" t="str">
         <f t="shared" si="58"/>
-        <v>291,</v>
+        <v>312,</v>
       </c>
       <c r="AC50" t="str">
         <f t="shared" si="58"/>
-        <v>290,</v>
+        <v>311,</v>
       </c>
       <c r="AD50" t="str">
         <f t="shared" si="58"/>
-        <v>289,</v>
+        <v>310,</v>
       </c>
       <c r="AE50" t="str">
         <f t="shared" si="58"/>
-        <v>288,</v>
+        <v>309,</v>
       </c>
       <c r="AF50" t="str">
         <f t="shared" si="58"/>
@@ -7053,119 +7306,119 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="58"/>
-        <v>260,</v>
+        <v>999,</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="58"/>
-        <v>261,</v>
+        <v>999,</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="58"/>
-        <v>262,</v>
+        <v>233,</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="58"/>
-        <v>263,</v>
+        <v>234,</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="58"/>
-        <v>264,</v>
+        <v>235,</v>
       </c>
       <c r="L51" t="str">
         <f t="shared" si="58"/>
-        <v>265,</v>
+        <v>236,</v>
       </c>
       <c r="M51" t="str">
         <f t="shared" si="58"/>
-        <v>266,</v>
+        <v>237,</v>
       </c>
       <c r="N51" t="str">
         <f t="shared" si="58"/>
-        <v>267,</v>
+        <v>238,</v>
       </c>
       <c r="O51" t="str">
         <f t="shared" si="58"/>
-        <v>268,</v>
+        <v>239,</v>
       </c>
       <c r="P51" t="str">
         <f t="shared" si="58"/>
-        <v>269,</v>
+        <v>240,</v>
       </c>
       <c r="Q51" t="str">
         <f t="shared" si="58"/>
-        <v>270,</v>
+        <v>241,</v>
       </c>
       <c r="R51" t="str">
         <f t="shared" si="58"/>
-        <v>271,</v>
+        <v>242,</v>
       </c>
       <c r="S51" t="str">
         <f t="shared" si="58"/>
-        <v>272,</v>
+        <v>243,</v>
       </c>
       <c r="T51" t="str">
         <f t="shared" si="58"/>
-        <v>273,</v>
+        <v>244,</v>
       </c>
       <c r="U51" t="str">
         <f t="shared" si="58"/>
-        <v>274,</v>
+        <v>245,</v>
       </c>
       <c r="V51" t="str">
         <f t="shared" si="58"/>
-        <v>275,</v>
+        <v>246,</v>
       </c>
       <c r="W51" t="str">
         <f t="shared" si="58"/>
-        <v>276,</v>
+        <v>247,</v>
       </c>
       <c r="X51" t="str">
         <f t="shared" si="58"/>
-        <v>277,</v>
+        <v>248,</v>
       </c>
       <c r="Y51" t="str">
         <f t="shared" si="58"/>
-        <v>278,</v>
+        <v>249,</v>
       </c>
       <c r="Z51" t="str">
         <f t="shared" si="58"/>
-        <v>279,</v>
+        <v>250,</v>
       </c>
       <c r="AA51" t="str">
         <f t="shared" si="58"/>
-        <v>280,</v>
+        <v>251,</v>
       </c>
       <c r="AB51" t="str">
         <f t="shared" si="58"/>
-        <v>281,</v>
+        <v>252,</v>
       </c>
       <c r="AC51" t="str">
         <f t="shared" si="58"/>
-        <v>282,</v>
+        <v>253,</v>
       </c>
       <c r="AD51" t="str">
         <f t="shared" si="58"/>
-        <v>283,</v>
+        <v>254,</v>
       </c>
       <c r="AE51" t="str">
         <f t="shared" si="58"/>
-        <v>284,</v>
+        <v>255,</v>
       </c>
       <c r="AF51" t="str">
         <f t="shared" si="58"/>
-        <v>285,</v>
+        <v>256,</v>
       </c>
       <c r="AG51" t="str">
         <f t="shared" si="58"/>
-        <v>286,</v>
+        <v>257,</v>
       </c>
       <c r="AH51" t="str">
         <f t="shared" si="58"/>
-        <v>287,</v>
+        <v>258,</v>
       </c>
       <c r="AI51" t="str">
         <f t="shared" si="58"/>
-        <v>999,</v>
+        <v>259,</v>
       </c>
       <c r="AJ51" t="str">
         <f t="shared" si="58"/>
@@ -7262,143 +7515,143 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="58"/>
-        <v>199,</v>
+        <v>999,</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="58"/>
-        <v>198,</v>
+        <v>999,</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="58"/>
-        <v>197,</v>
+        <v>232,</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="58"/>
-        <v>196,</v>
+        <v>231,</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="58"/>
-        <v>195,</v>
+        <v>230,</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="58"/>
-        <v>194,</v>
+        <v>229,</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="58"/>
-        <v>193,</v>
+        <v>228,</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="58"/>
-        <v>192,</v>
+        <v>227,</v>
       </c>
       <c r="L52" t="str">
         <f t="shared" si="58"/>
-        <v>191,</v>
+        <v>226,</v>
       </c>
       <c r="M52" t="str">
         <f t="shared" si="58"/>
-        <v>190,</v>
+        <v>225,</v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="58"/>
-        <v>189,</v>
+        <v>224,</v>
       </c>
       <c r="O52" t="str">
         <f t="shared" si="58"/>
-        <v>188,</v>
+        <v>223,</v>
       </c>
       <c r="P52" t="str">
         <f t="shared" si="58"/>
-        <v>187,</v>
+        <v>222,</v>
       </c>
       <c r="Q52" t="str">
         <f t="shared" si="58"/>
-        <v>186,</v>
+        <v>221,</v>
       </c>
       <c r="R52" t="str">
         <f t="shared" si="58"/>
-        <v>185,</v>
+        <v>220,</v>
       </c>
       <c r="S52" t="str">
         <f t="shared" si="58"/>
-        <v>184,</v>
+        <v>219,</v>
       </c>
       <c r="T52" t="str">
         <f t="shared" si="58"/>
-        <v>183,</v>
+        <v>218,</v>
       </c>
       <c r="U52" t="str">
         <f t="shared" si="58"/>
-        <v>182,</v>
+        <v>217,</v>
       </c>
       <c r="V52" t="str">
         <f t="shared" si="58"/>
-        <v>181,</v>
+        <v>216,</v>
       </c>
       <c r="W52" t="str">
         <f t="shared" si="58"/>
-        <v>180,</v>
+        <v>215,</v>
       </c>
       <c r="X52" t="str">
         <f t="shared" si="58"/>
-        <v>179,</v>
+        <v>214,</v>
       </c>
       <c r="Y52" t="str">
         <f t="shared" si="58"/>
-        <v>178,</v>
+        <v>213,</v>
       </c>
       <c r="Z52" t="str">
         <f t="shared" si="58"/>
-        <v>177,</v>
+        <v>212,</v>
       </c>
       <c r="AA52" t="str">
         <f t="shared" si="58"/>
-        <v>176,</v>
+        <v>211,</v>
       </c>
       <c r="AB52" t="str">
         <f t="shared" si="58"/>
-        <v>175,</v>
+        <v>210,</v>
       </c>
       <c r="AC52" t="str">
         <f t="shared" si="58"/>
-        <v>174,</v>
+        <v>209,</v>
       </c>
       <c r="AD52" t="str">
         <f t="shared" si="58"/>
-        <v>173,</v>
+        <v>208,</v>
       </c>
       <c r="AE52" t="str">
         <f t="shared" si="58"/>
-        <v>172,</v>
+        <v>207,</v>
       </c>
       <c r="AF52" t="str">
         <f t="shared" si="58"/>
-        <v>171,</v>
+        <v>206,</v>
       </c>
       <c r="AG52" t="str">
         <f t="shared" si="58"/>
-        <v>170,</v>
+        <v>205,</v>
       </c>
       <c r="AH52" t="str">
         <f t="shared" si="58"/>
-        <v>169,</v>
+        <v>204,</v>
       </c>
       <c r="AI52" t="str">
         <f t="shared" si="58"/>
-        <v>168,</v>
+        <v>203,</v>
       </c>
       <c r="AJ52" t="str">
         <f t="shared" si="58"/>
-        <v>167,</v>
+        <v>202,</v>
       </c>
       <c r="AK52" t="str">
         <f t="shared" si="58"/>
-        <v>166,</v>
+        <v>201,</v>
       </c>
       <c r="AL52" t="str">
         <f t="shared" si="58"/>
-        <v>999,</v>
+        <v>200,</v>
       </c>
       <c r="AM52" t="str">
         <f t="shared" si="58"/>
@@ -7479,151 +7732,151 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" si="59"/>
-        <v>129,</v>
+        <v>92,</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="58"/>
-        <v>130,</v>
+        <v>93,</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="58"/>
-        <v>131,</v>
+        <v>94,</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="58"/>
-        <v>132,</v>
+        <v>95,</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="58"/>
-        <v>133,</v>
+        <v>96,</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="58"/>
-        <v>134,</v>
+        <v>97,</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="58"/>
-        <v>135,</v>
+        <v>98,</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="58"/>
-        <v>136,</v>
+        <v>99,</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="58"/>
-        <v>137,</v>
+        <v>100,</v>
       </c>
       <c r="L53" t="str">
         <f t="shared" si="58"/>
-        <v>138,</v>
+        <v>101,</v>
       </c>
       <c r="M53" t="str">
         <f t="shared" si="58"/>
-        <v>139,</v>
+        <v>102,</v>
       </c>
       <c r="N53" t="str">
         <f t="shared" si="58"/>
-        <v>140,</v>
+        <v>103,</v>
       </c>
       <c r="O53" t="str">
         <f t="shared" si="58"/>
-        <v>141,</v>
+        <v>104,</v>
       </c>
       <c r="P53" t="str">
         <f t="shared" si="58"/>
-        <v>142,</v>
+        <v>105,</v>
       </c>
       <c r="Q53" t="str">
         <f t="shared" si="58"/>
-        <v>143,</v>
+        <v>106,</v>
       </c>
       <c r="R53" t="str">
         <f t="shared" si="58"/>
-        <v>144,</v>
+        <v>107,</v>
       </c>
       <c r="S53" t="str">
         <f t="shared" si="58"/>
-        <v>145,</v>
+        <v>108,</v>
       </c>
       <c r="T53" t="str">
         <f t="shared" si="58"/>
-        <v>146,</v>
+        <v>109,</v>
       </c>
       <c r="U53" t="str">
         <f t="shared" si="58"/>
-        <v>147,</v>
+        <v>110,</v>
       </c>
       <c r="V53" t="str">
         <f t="shared" si="58"/>
-        <v>148,</v>
+        <v>111,</v>
       </c>
       <c r="W53" t="str">
         <f t="shared" si="58"/>
-        <v>149,</v>
+        <v>112,</v>
       </c>
       <c r="X53" t="str">
         <f t="shared" si="58"/>
-        <v>150,</v>
+        <v>113,</v>
       </c>
       <c r="Y53" t="str">
         <f t="shared" si="58"/>
-        <v>151,</v>
+        <v>114,</v>
       </c>
       <c r="Z53" t="str">
         <f t="shared" si="58"/>
-        <v>152,</v>
+        <v>115,</v>
       </c>
       <c r="AA53" t="str">
         <f t="shared" si="58"/>
-        <v>153,</v>
+        <v>116,</v>
       </c>
       <c r="AB53" t="str">
         <f t="shared" si="58"/>
-        <v>154,</v>
+        <v>117,</v>
       </c>
       <c r="AC53" t="str">
         <f t="shared" si="58"/>
-        <v>155,</v>
+        <v>118,</v>
       </c>
       <c r="AD53" t="str">
         <f t="shared" si="58"/>
-        <v>156,</v>
+        <v>119,</v>
       </c>
       <c r="AE53" t="str">
         <f t="shared" si="58"/>
-        <v>157,</v>
+        <v>120,</v>
       </c>
       <c r="AF53" t="str">
         <f t="shared" si="58"/>
-        <v>158,</v>
+        <v>121,</v>
       </c>
       <c r="AG53" t="str">
         <f t="shared" si="58"/>
-        <v>159,</v>
+        <v>122,</v>
       </c>
       <c r="AH53" t="str">
         <f t="shared" si="58"/>
-        <v>160,</v>
+        <v>123,</v>
       </c>
       <c r="AI53" t="str">
         <f t="shared" si="58"/>
-        <v>161,</v>
+        <v>124,</v>
       </c>
       <c r="AJ53" t="str">
         <f t="shared" si="58"/>
-        <v>162,</v>
+        <v>125,</v>
       </c>
       <c r="AK53" t="str">
         <f t="shared" si="58"/>
-        <v>163,</v>
+        <v>126,</v>
       </c>
       <c r="AL53" t="str">
         <f t="shared" si="58"/>
-        <v>164,</v>
+        <v>127,</v>
       </c>
       <c r="AM53" t="str">
         <f t="shared" si="58"/>
-        <v>165,</v>
+        <v>128,</v>
       </c>
       <c r="AN53" t="str">
         <f t="shared" si="58"/>
@@ -7704,143 +7957,143 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="58"/>
-        <v>70,</v>
+        <v>999,</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="58"/>
-        <v>69,</v>
+        <v>999,</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="58"/>
-        <v>68,</v>
+        <v>999,</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="58"/>
-        <v>67,</v>
+        <v>999,</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="58"/>
-        <v>66,</v>
+        <v>999,</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" ref="D54:BD58" si="60">CONCATENATE(I35,",")</f>
-        <v>65,</v>
+        <v>999,</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="60"/>
-        <v>64,</v>
+        <v>999,</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="60"/>
-        <v>63,</v>
+        <v>999,</v>
       </c>
       <c r="L54" t="str">
         <f t="shared" si="60"/>
-        <v>62,</v>
+        <v>999,</v>
       </c>
       <c r="M54" t="str">
         <f t="shared" si="60"/>
-        <v>61,</v>
+        <v>999,</v>
       </c>
       <c r="N54" t="str">
         <f t="shared" si="60"/>
-        <v>60,</v>
+        <v>999,</v>
       </c>
       <c r="O54" t="str">
         <f t="shared" si="60"/>
-        <v>59,</v>
+        <v>999,</v>
       </c>
       <c r="P54" t="str">
         <f t="shared" si="60"/>
-        <v>58,</v>
+        <v>999,</v>
       </c>
       <c r="Q54" t="str">
         <f t="shared" si="60"/>
-        <v>57,</v>
+        <v>999,</v>
       </c>
       <c r="R54" t="str">
         <f t="shared" si="60"/>
-        <v>56,</v>
+        <v>91,</v>
       </c>
       <c r="S54" t="str">
         <f t="shared" si="60"/>
-        <v>55,</v>
+        <v>90,</v>
       </c>
       <c r="T54" t="str">
         <f t="shared" si="60"/>
-        <v>54,</v>
+        <v>89,</v>
       </c>
       <c r="U54" t="str">
         <f t="shared" si="60"/>
-        <v>53,</v>
+        <v>88,</v>
       </c>
       <c r="V54" t="str">
         <f t="shared" si="60"/>
-        <v>52,</v>
+        <v>87,</v>
       </c>
       <c r="W54" t="str">
         <f t="shared" si="60"/>
-        <v>51,</v>
+        <v>86,</v>
       </c>
       <c r="X54" t="str">
         <f t="shared" si="60"/>
-        <v>50,</v>
+        <v>85,</v>
       </c>
       <c r="Y54" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>84,</v>
       </c>
       <c r="Z54" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>83,</v>
       </c>
       <c r="AA54" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>82,</v>
       </c>
       <c r="AB54" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>81,</v>
       </c>
       <c r="AC54" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>80,</v>
       </c>
       <c r="AD54" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>79,</v>
       </c>
       <c r="AE54" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>78,</v>
       </c>
       <c r="AF54" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>77,</v>
       </c>
       <c r="AG54" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>76,</v>
       </c>
       <c r="AH54" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>75,</v>
       </c>
       <c r="AI54" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>74,</v>
       </c>
       <c r="AJ54" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>73,</v>
       </c>
       <c r="AK54" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>72,</v>
       </c>
       <c r="AL54" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>71,</v>
       </c>
       <c r="AM54" t="str">
         <f t="shared" si="60"/>
@@ -7933,63 +8186,63 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="60"/>
-        <v>35,</v>
+        <v>999,</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="60"/>
-        <v>36,</v>
+        <v>999,</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="60"/>
-        <v>37,</v>
+        <v>999,</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="60"/>
-        <v>38,</v>
+        <v>999,</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="60"/>
-        <v>39,</v>
+        <v>999,</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="60"/>
-        <v>40,</v>
+        <v>999,</v>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="60"/>
-        <v>41,</v>
+        <v>999,</v>
       </c>
       <c r="M55" t="str">
         <f t="shared" si="60"/>
-        <v>42,</v>
+        <v>999,</v>
       </c>
       <c r="N55" t="str">
         <f t="shared" si="60"/>
-        <v>43,</v>
+        <v>999,</v>
       </c>
       <c r="O55" t="str">
         <f t="shared" si="60"/>
-        <v>44,</v>
+        <v>999,</v>
       </c>
       <c r="P55" t="str">
         <f t="shared" si="60"/>
-        <v>45,</v>
+        <v>999,</v>
       </c>
       <c r="Q55" t="str">
         <f t="shared" si="60"/>
-        <v>46,</v>
+        <v>999,</v>
       </c>
       <c r="R55" t="str">
         <f t="shared" si="60"/>
-        <v>47,</v>
+        <v>999,</v>
       </c>
       <c r="S55" t="str">
         <f t="shared" si="60"/>
-        <v>48,</v>
+        <v>999,</v>
       </c>
       <c r="T55" t="str">
         <f t="shared" si="60"/>
-        <v>49,</v>
+        <v>999,</v>
       </c>
       <c r="U55" t="str">
         <f t="shared" si="60"/>
@@ -7997,63 +8250,63 @@
       </c>
       <c r="V55" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>14,</v>
       </c>
       <c r="W55" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>15,</v>
       </c>
       <c r="X55" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>16,</v>
       </c>
       <c r="Y55" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>17,</v>
       </c>
       <c r="Z55" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>18,</v>
       </c>
       <c r="AA55" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>19,</v>
       </c>
       <c r="AB55" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>20,</v>
       </c>
       <c r="AC55" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>21,</v>
       </c>
       <c r="AD55" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>22,</v>
       </c>
       <c r="AE55" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>23,</v>
       </c>
       <c r="AF55" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>24,</v>
       </c>
       <c r="AG55" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>25,</v>
       </c>
       <c r="AH55" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>26,</v>
       </c>
       <c r="AI55" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>27,</v>
       </c>
       <c r="AJ55" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>28,</v>
       </c>
       <c r="AK55" t="str">
         <f t="shared" si="60"/>
@@ -8158,15 +8411,15 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="60"/>
-        <v>34,</v>
+        <v>999,</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="60"/>
-        <v>33,</v>
+        <v>999,</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="60"/>
-        <v>32,</v>
+        <v>999,</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="60"/>
@@ -8174,31 +8427,31 @@
       </c>
       <c r="K56" t="str">
         <f t="shared" si="60"/>
-        <v>6,</v>
+        <v>999,</v>
       </c>
       <c r="L56" t="str">
         <f t="shared" si="60"/>
-        <v>5,</v>
+        <v>999,</v>
       </c>
       <c r="M56" t="str">
         <f t="shared" si="60"/>
-        <v>4,</v>
+        <v>999,</v>
       </c>
       <c r="N56" t="str">
         <f t="shared" si="60"/>
-        <v>3,</v>
+        <v>999,</v>
       </c>
       <c r="O56" t="str">
         <f t="shared" si="60"/>
-        <v>2,</v>
+        <v>999,</v>
       </c>
       <c r="P56" t="str">
         <f t="shared" si="60"/>
-        <v>1,</v>
+        <v>999,</v>
       </c>
       <c r="Q56" t="str">
         <f t="shared" si="60"/>
-        <v>0,</v>
+        <v>999,</v>
       </c>
       <c r="R56" t="str">
         <f t="shared" si="60"/>
@@ -8234,31 +8487,31 @@
       </c>
       <c r="Z56" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>13,</v>
       </c>
       <c r="AA56" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>12,</v>
       </c>
       <c r="AB56" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>11,</v>
       </c>
       <c r="AC56" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>10,</v>
       </c>
       <c r="AD56" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>9,</v>
       </c>
       <c r="AE56" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>8,</v>
       </c>
       <c r="AF56" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>7,</v>
       </c>
       <c r="AG56" t="str">
         <f t="shared" si="60"/>
@@ -8266,15 +8519,15 @@
       </c>
       <c r="AH56" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>31,</v>
       </c>
       <c r="AI56" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>30,</v>
       </c>
       <c r="AJ56" t="str">
         <f t="shared" si="60"/>
-        <v>999,</v>
+        <v>29,</v>
       </c>
       <c r="AK56" t="str">
         <f t="shared" si="60"/>
@@ -10566,39 +10819,39 @@
       </c>
       <c r="Q69" t="str">
         <f t="shared" ref="Q69:BA69" si="64">IF($C$25&gt;$B69,Q49,"")</f>
-        <v>336,</v>
+        <v>999,</v>
       </c>
       <c r="R69" t="str">
         <f t="shared" si="64"/>
-        <v>337,</v>
+        <v>999,</v>
       </c>
       <c r="S69" t="str">
         <f t="shared" si="64"/>
-        <v>338,</v>
+        <v>999,</v>
       </c>
       <c r="T69" t="str">
         <f t="shared" si="64"/>
-        <v>339,</v>
+        <v>330,</v>
       </c>
       <c r="U69" t="str">
         <f t="shared" si="64"/>
-        <v>340,</v>
+        <v>331,</v>
       </c>
       <c r="V69" t="str">
         <f t="shared" si="64"/>
-        <v>341,</v>
+        <v>332,</v>
       </c>
       <c r="W69" t="str">
         <f t="shared" si="64"/>
-        <v>999,</v>
+        <v>333,</v>
       </c>
       <c r="X69" t="str">
         <f t="shared" si="64"/>
-        <v>999,</v>
+        <v>334,</v>
       </c>
       <c r="Y69" t="str">
         <f t="shared" si="64"/>
-        <v>999,</v>
+        <v>335,</v>
       </c>
       <c r="Z69" t="str">
         <f t="shared" si="64"/>
@@ -10751,87 +11004,87 @@
       </c>
       <c r="K70" t="str">
         <f t="shared" si="65"/>
-        <v>308,</v>
+        <v>329,</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="65"/>
-        <v>307,</v>
+        <v>328,</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="65"/>
-        <v>306,</v>
+        <v>327,</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="65"/>
-        <v>305,</v>
+        <v>326,</v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="65"/>
-        <v>304,</v>
+        <v>325,</v>
       </c>
       <c r="P70" t="str">
         <f t="shared" ref="P70:BA70" si="66">IF($C$25&gt;$B70,P50,"")</f>
-        <v>303,</v>
+        <v>324,</v>
       </c>
       <c r="Q70" t="str">
         <f t="shared" si="66"/>
-        <v>302,</v>
+        <v>323,</v>
       </c>
       <c r="R70" t="str">
         <f t="shared" si="66"/>
-        <v>301,</v>
+        <v>322,</v>
       </c>
       <c r="S70" t="str">
         <f t="shared" si="66"/>
-        <v>300,</v>
+        <v>321,</v>
       </c>
       <c r="T70" t="str">
         <f t="shared" si="66"/>
-        <v>299,</v>
+        <v>320,</v>
       </c>
       <c r="U70" t="str">
         <f t="shared" si="66"/>
-        <v>298,</v>
+        <v>319,</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="66"/>
-        <v>297,</v>
+        <v>318,</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="66"/>
-        <v>296,</v>
+        <v>317,</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" si="66"/>
-        <v>295,</v>
+        <v>316,</v>
       </c>
       <c r="Y70" t="str">
         <f t="shared" si="66"/>
-        <v>294,</v>
+        <v>315,</v>
       </c>
       <c r="Z70" t="str">
         <f t="shared" si="66"/>
-        <v>293,</v>
+        <v>314,</v>
       </c>
       <c r="AA70" t="str">
         <f t="shared" si="66"/>
-        <v>292,</v>
+        <v>313,</v>
       </c>
       <c r="AB70" t="str">
         <f t="shared" si="66"/>
-        <v>291,</v>
+        <v>312,</v>
       </c>
       <c r="AC70" t="str">
         <f t="shared" si="66"/>
-        <v>290,</v>
+        <v>311,</v>
       </c>
       <c r="AD70" t="str">
         <f t="shared" si="66"/>
-        <v>289,</v>
+        <v>310,</v>
       </c>
       <c r="AE70" t="str">
         <f t="shared" si="66"/>
-        <v>288,</v>
+        <v>309,</v>
       </c>
       <c r="AF70" t="str">
         <f t="shared" si="66"/>
@@ -10944,119 +11197,119 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="65"/>
-        <v>260,</v>
+        <v>999,</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="65"/>
-        <v>261,</v>
+        <v>999,</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="65"/>
-        <v>262,</v>
+        <v>233,</v>
       </c>
       <c r="J71" t="str">
         <f t="shared" si="65"/>
-        <v>263,</v>
+        <v>234,</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="65"/>
-        <v>264,</v>
+        <v>235,</v>
       </c>
       <c r="L71" t="str">
         <f t="shared" si="65"/>
-        <v>265,</v>
+        <v>236,</v>
       </c>
       <c r="M71" t="str">
         <f t="shared" si="65"/>
-        <v>266,</v>
+        <v>237,</v>
       </c>
       <c r="N71" t="str">
         <f t="shared" si="65"/>
-        <v>267,</v>
+        <v>238,</v>
       </c>
       <c r="O71" t="str">
         <f t="shared" si="65"/>
-        <v>268,</v>
+        <v>239,</v>
       </c>
       <c r="P71" t="str">
         <f t="shared" ref="P71:BA71" si="67">IF($C$25&gt;$B71,P51,"")</f>
-        <v>269,</v>
+        <v>240,</v>
       </c>
       <c r="Q71" t="str">
         <f t="shared" si="67"/>
-        <v>270,</v>
+        <v>241,</v>
       </c>
       <c r="R71" t="str">
         <f t="shared" si="67"/>
-        <v>271,</v>
+        <v>242,</v>
       </c>
       <c r="S71" t="str">
         <f t="shared" si="67"/>
-        <v>272,</v>
+        <v>243,</v>
       </c>
       <c r="T71" t="str">
         <f t="shared" si="67"/>
-        <v>273,</v>
+        <v>244,</v>
       </c>
       <c r="U71" t="str">
         <f t="shared" si="67"/>
-        <v>274,</v>
+        <v>245,</v>
       </c>
       <c r="V71" t="str">
         <f t="shared" si="67"/>
-        <v>275,</v>
+        <v>246,</v>
       </c>
       <c r="W71" t="str">
         <f t="shared" si="67"/>
-        <v>276,</v>
+        <v>247,</v>
       </c>
       <c r="X71" t="str">
         <f t="shared" si="67"/>
-        <v>277,</v>
+        <v>248,</v>
       </c>
       <c r="Y71" t="str">
         <f t="shared" si="67"/>
-        <v>278,</v>
+        <v>249,</v>
       </c>
       <c r="Z71" t="str">
         <f t="shared" si="67"/>
-        <v>279,</v>
+        <v>250,</v>
       </c>
       <c r="AA71" t="str">
         <f t="shared" si="67"/>
-        <v>280,</v>
+        <v>251,</v>
       </c>
       <c r="AB71" t="str">
         <f t="shared" si="67"/>
-        <v>281,</v>
+        <v>252,</v>
       </c>
       <c r="AC71" t="str">
         <f t="shared" si="67"/>
-        <v>282,</v>
+        <v>253,</v>
       </c>
       <c r="AD71" t="str">
         <f t="shared" si="67"/>
-        <v>283,</v>
+        <v>254,</v>
       </c>
       <c r="AE71" t="str">
         <f t="shared" si="67"/>
-        <v>284,</v>
+        <v>255,</v>
       </c>
       <c r="AF71" t="str">
         <f t="shared" si="67"/>
-        <v>285,</v>
+        <v>256,</v>
       </c>
       <c r="AG71" t="str">
         <f t="shared" si="67"/>
-        <v>286,</v>
+        <v>257,</v>
       </c>
       <c r="AH71" t="str">
         <f t="shared" si="67"/>
-        <v>287,</v>
+        <v>258,</v>
       </c>
       <c r="AI71" t="str">
         <f t="shared" si="67"/>
-        <v>999,</v>
+        <v>259,</v>
       </c>
       <c r="AJ71" t="str">
         <f t="shared" si="67"/>
@@ -11141,143 +11394,143 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="65"/>
-        <v>199,</v>
+        <v>999,</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="65"/>
-        <v>198,</v>
+        <v>999,</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="65"/>
-        <v>197,</v>
+        <v>232,</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="65"/>
-        <v>196,</v>
+        <v>231,</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="65"/>
-        <v>195,</v>
+        <v>230,</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="65"/>
-        <v>194,</v>
+        <v>229,</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="65"/>
-        <v>193,</v>
+        <v>228,</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="65"/>
-        <v>192,</v>
+        <v>227,</v>
       </c>
       <c r="L72" t="str">
         <f t="shared" si="65"/>
-        <v>191,</v>
+        <v>226,</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="65"/>
-        <v>190,</v>
+        <v>225,</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="65"/>
-        <v>189,</v>
+        <v>224,</v>
       </c>
       <c r="O72" t="str">
         <f t="shared" si="65"/>
-        <v>188,</v>
+        <v>223,</v>
       </c>
       <c r="P72" t="str">
         <f t="shared" ref="P72:BA72" si="68">IF($C$25&gt;$B72,P52,"")</f>
-        <v>187,</v>
+        <v>222,</v>
       </c>
       <c r="Q72" t="str">
         <f t="shared" si="68"/>
-        <v>186,</v>
+        <v>221,</v>
       </c>
       <c r="R72" t="str">
         <f t="shared" si="68"/>
-        <v>185,</v>
+        <v>220,</v>
       </c>
       <c r="S72" t="str">
         <f t="shared" si="68"/>
-        <v>184,</v>
+        <v>219,</v>
       </c>
       <c r="T72" t="str">
         <f t="shared" si="68"/>
-        <v>183,</v>
+        <v>218,</v>
       </c>
       <c r="U72" t="str">
         <f t="shared" si="68"/>
-        <v>182,</v>
+        <v>217,</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" si="68"/>
-        <v>181,</v>
+        <v>216,</v>
       </c>
       <c r="W72" t="str">
         <f t="shared" si="68"/>
-        <v>180,</v>
+        <v>215,</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" si="68"/>
-        <v>179,</v>
+        <v>214,</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" si="68"/>
-        <v>178,</v>
+        <v>213,</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" si="68"/>
-        <v>177,</v>
+        <v>212,</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" si="68"/>
-        <v>176,</v>
+        <v>211,</v>
       </c>
       <c r="AB72" t="str">
         <f t="shared" si="68"/>
-        <v>175,</v>
+        <v>210,</v>
       </c>
       <c r="AC72" t="str">
         <f t="shared" si="68"/>
-        <v>174,</v>
+        <v>209,</v>
       </c>
       <c r="AD72" t="str">
         <f t="shared" si="68"/>
-        <v>173,</v>
+        <v>208,</v>
       </c>
       <c r="AE72" t="str">
         <f t="shared" si="68"/>
-        <v>172,</v>
+        <v>207,</v>
       </c>
       <c r="AF72" t="str">
         <f t="shared" si="68"/>
-        <v>171,</v>
+        <v>206,</v>
       </c>
       <c r="AG72" t="str">
         <f t="shared" si="68"/>
-        <v>170,</v>
+        <v>205,</v>
       </c>
       <c r="AH72" t="str">
         <f t="shared" si="68"/>
-        <v>169,</v>
+        <v>204,</v>
       </c>
       <c r="AI72" t="str">
         <f t="shared" si="68"/>
-        <v>168,</v>
+        <v>203,</v>
       </c>
       <c r="AJ72" t="str">
         <f t="shared" si="68"/>
-        <v>167,</v>
+        <v>202,</v>
       </c>
       <c r="AK72" t="str">
         <f t="shared" si="68"/>
-        <v>166,</v>
+        <v>201,</v>
       </c>
       <c r="AL72" t="str">
         <f t="shared" si="68"/>
-        <v>999,</v>
+        <v>200,</v>
       </c>
       <c r="AM72" t="str">
         <f t="shared" si="68"/>
@@ -11346,151 +11599,151 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" si="65"/>
-        <v>129,</v>
+        <v>92,</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="65"/>
-        <v>130,</v>
+        <v>93,</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="65"/>
-        <v>131,</v>
+        <v>94,</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="65"/>
-        <v>132,</v>
+        <v>95,</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="65"/>
-        <v>133,</v>
+        <v>96,</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="65"/>
-        <v>134,</v>
+        <v>97,</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="65"/>
-        <v>135,</v>
+        <v>98,</v>
       </c>
       <c r="J73" t="str">
         <f t="shared" si="65"/>
-        <v>136,</v>
+        <v>99,</v>
       </c>
       <c r="K73" t="str">
         <f t="shared" si="65"/>
-        <v>137,</v>
+        <v>100,</v>
       </c>
       <c r="L73" t="str">
         <f t="shared" si="65"/>
-        <v>138,</v>
+        <v>101,</v>
       </c>
       <c r="M73" t="str">
         <f t="shared" si="65"/>
-        <v>139,</v>
+        <v>102,</v>
       </c>
       <c r="N73" t="str">
         <f t="shared" si="65"/>
-        <v>140,</v>
+        <v>103,</v>
       </c>
       <c r="O73" t="str">
         <f t="shared" si="65"/>
-        <v>141,</v>
+        <v>104,</v>
       </c>
       <c r="P73" t="str">
         <f t="shared" ref="P73:BA73" si="69">IF($C$25&gt;$B73,P53,"")</f>
-        <v>142,</v>
+        <v>105,</v>
       </c>
       <c r="Q73" t="str">
         <f t="shared" si="69"/>
-        <v>143,</v>
+        <v>106,</v>
       </c>
       <c r="R73" t="str">
         <f t="shared" si="69"/>
-        <v>144,</v>
+        <v>107,</v>
       </c>
       <c r="S73" t="str">
         <f t="shared" si="69"/>
-        <v>145,</v>
+        <v>108,</v>
       </c>
       <c r="T73" t="str">
         <f t="shared" si="69"/>
-        <v>146,</v>
+        <v>109,</v>
       </c>
       <c r="U73" t="str">
         <f t="shared" si="69"/>
-        <v>147,</v>
+        <v>110,</v>
       </c>
       <c r="V73" t="str">
         <f t="shared" si="69"/>
-        <v>148,</v>
+        <v>111,</v>
       </c>
       <c r="W73" t="str">
         <f t="shared" si="69"/>
-        <v>149,</v>
+        <v>112,</v>
       </c>
       <c r="X73" t="str">
         <f t="shared" si="69"/>
-        <v>150,</v>
+        <v>113,</v>
       </c>
       <c r="Y73" t="str">
         <f t="shared" si="69"/>
-        <v>151,</v>
+        <v>114,</v>
       </c>
       <c r="Z73" t="str">
         <f t="shared" si="69"/>
-        <v>152,</v>
+        <v>115,</v>
       </c>
       <c r="AA73" t="str">
         <f t="shared" si="69"/>
-        <v>153,</v>
+        <v>116,</v>
       </c>
       <c r="AB73" t="str">
         <f t="shared" si="69"/>
-        <v>154,</v>
+        <v>117,</v>
       </c>
       <c r="AC73" t="str">
         <f t="shared" si="69"/>
-        <v>155,</v>
+        <v>118,</v>
       </c>
       <c r="AD73" t="str">
         <f t="shared" si="69"/>
-        <v>156,</v>
+        <v>119,</v>
       </c>
       <c r="AE73" t="str">
         <f t="shared" si="69"/>
-        <v>157,</v>
+        <v>120,</v>
       </c>
       <c r="AF73" t="str">
         <f t="shared" si="69"/>
-        <v>158,</v>
+        <v>121,</v>
       </c>
       <c r="AG73" t="str">
         <f t="shared" si="69"/>
-        <v>159,</v>
+        <v>122,</v>
       </c>
       <c r="AH73" t="str">
         <f t="shared" si="69"/>
-        <v>160,</v>
+        <v>123,</v>
       </c>
       <c r="AI73" t="str">
         <f t="shared" si="69"/>
-        <v>161,</v>
+        <v>124,</v>
       </c>
       <c r="AJ73" t="str">
         <f t="shared" si="69"/>
-        <v>162,</v>
+        <v>125,</v>
       </c>
       <c r="AK73" t="str">
         <f t="shared" si="69"/>
-        <v>163,</v>
+        <v>126,</v>
       </c>
       <c r="AL73" t="str">
         <f t="shared" si="69"/>
-        <v>164,</v>
+        <v>127,</v>
       </c>
       <c r="AM73" t="str">
         <f t="shared" si="69"/>
-        <v>165,</v>
+        <v>128,</v>
       </c>
       <c r="AN73" t="str">
         <f t="shared" si="69"/>
@@ -11559,143 +11812,143 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="65"/>
-        <v>70,</v>
+        <v>999,</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="65"/>
-        <v>69,</v>
+        <v>999,</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="65"/>
-        <v>68,</v>
+        <v>999,</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="65"/>
-        <v>67,</v>
+        <v>999,</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="65"/>
-        <v>66,</v>
+        <v>999,</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="65"/>
-        <v>65,</v>
+        <v>999,</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="65"/>
-        <v>64,</v>
+        <v>999,</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="65"/>
-        <v>63,</v>
+        <v>999,</v>
       </c>
       <c r="L74" t="str">
         <f t="shared" si="65"/>
-        <v>62,</v>
+        <v>999,</v>
       </c>
       <c r="M74" t="str">
         <f t="shared" si="65"/>
-        <v>61,</v>
+        <v>999,</v>
       </c>
       <c r="N74" t="str">
         <f t="shared" si="65"/>
-        <v>60,</v>
+        <v>999,</v>
       </c>
       <c r="O74" t="str">
         <f t="shared" si="65"/>
-        <v>59,</v>
+        <v>999,</v>
       </c>
       <c r="P74" t="str">
         <f t="shared" ref="P74:BA74" si="70">IF($C$25&gt;$B74,P54,"")</f>
-        <v>58,</v>
+        <v>999,</v>
       </c>
       <c r="Q74" t="str">
         <f t="shared" si="70"/>
-        <v>57,</v>
+        <v>999,</v>
       </c>
       <c r="R74" t="str">
         <f t="shared" si="70"/>
-        <v>56,</v>
+        <v>91,</v>
       </c>
       <c r="S74" t="str">
         <f t="shared" si="70"/>
-        <v>55,</v>
+        <v>90,</v>
       </c>
       <c r="T74" t="str">
         <f t="shared" si="70"/>
-        <v>54,</v>
+        <v>89,</v>
       </c>
       <c r="U74" t="str">
         <f t="shared" si="70"/>
-        <v>53,</v>
+        <v>88,</v>
       </c>
       <c r="V74" t="str">
         <f t="shared" si="70"/>
-        <v>52,</v>
+        <v>87,</v>
       </c>
       <c r="W74" t="str">
         <f t="shared" si="70"/>
-        <v>51,</v>
+        <v>86,</v>
       </c>
       <c r="X74" t="str">
         <f t="shared" si="70"/>
-        <v>50,</v>
+        <v>85,</v>
       </c>
       <c r="Y74" t="str">
         <f t="shared" si="70"/>
-        <v>999,</v>
+        <v>84,</v>
       </c>
       <c r="Z74" t="str">
         <f t="shared" si="70"/>
-        <v>999,</v>
+        <v>83,</v>
       </c>
       <c r="AA74" t="str">
         <f t="shared" si="70"/>
-        <v>999,</v>
+        <v>82,</v>
       </c>
       <c r="AB74" t="str">
         <f t="shared" si="70"/>
-        <v>999,</v>
+        <v>81,</v>
       </c>
       <c r="AC74" t="str">
         <f t="shared" si="70"/>
-        <v>999,</v>
+        <v>80,</v>
       </c>
       <c r="AD74" t="str">
         <f t="shared" si="70"/>
-        <v>999,</v>
+        <v>79,</v>
       </c>
       <c r="AE74" t="str">
         <f t="shared" si="70"/>
-        <v>999,</v>
+        <v>78,</v>
       </c>
       <c r="AF74" t="str">
         <f t="shared" si="70"/>
-        <v>999,</v>
+        <v>77,</v>
       </c>
       <c r="AG74" t="str">
         <f t="shared" si="70"/>
-        <v>999,</v>
+        <v>76,</v>
       </c>
       <c r="AH74" t="str">
         <f t="shared" si="70"/>
-        <v>999,</v>
+        <v>75,</v>
       </c>
       <c r="AI74" t="str">
         <f t="shared" si="70"/>
-        <v>999,</v>
+        <v>74,</v>
       </c>
       <c r="AJ74" t="str">
         <f t="shared" si="70"/>
-        <v>999,</v>
+        <v>73,</v>
       </c>
       <c r="AK74" t="str">
         <f t="shared" si="70"/>
-        <v>999,</v>
+        <v>72,</v>
       </c>
       <c r="AL74" t="str">
         <f t="shared" si="70"/>
-        <v>999,</v>
+        <v>71,</v>
       </c>
       <c r="AM74" t="str">
         <f t="shared" si="70"/>
@@ -11776,63 +12029,63 @@
       </c>
       <c r="F75" t="str">
         <f t="shared" si="65"/>
-        <v>35,</v>
+        <v>999,</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="65"/>
-        <v>36,</v>
+        <v>999,</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="65"/>
-        <v>37,</v>
+        <v>999,</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="65"/>
-        <v>38,</v>
+        <v>999,</v>
       </c>
       <c r="J75" t="str">
         <f t="shared" si="65"/>
-        <v>39,</v>
+        <v>999,</v>
       </c>
       <c r="K75" t="str">
         <f t="shared" si="65"/>
-        <v>40,</v>
+        <v>999,</v>
       </c>
       <c r="L75" t="str">
         <f t="shared" si="65"/>
-        <v>41,</v>
+        <v>999,</v>
       </c>
       <c r="M75" t="str">
         <f t="shared" si="65"/>
-        <v>42,</v>
+        <v>999,</v>
       </c>
       <c r="N75" t="str">
         <f t="shared" si="65"/>
-        <v>43,</v>
+        <v>999,</v>
       </c>
       <c r="O75" t="str">
         <f t="shared" si="65"/>
-        <v>44,</v>
+        <v>999,</v>
       </c>
       <c r="P75" t="str">
         <f t="shared" ref="P75:BA75" si="71">IF($C$25&gt;$B75,P55,"")</f>
-        <v>45,</v>
+        <v>999,</v>
       </c>
       <c r="Q75" t="str">
         <f t="shared" si="71"/>
-        <v>46,</v>
+        <v>999,</v>
       </c>
       <c r="R75" t="str">
         <f t="shared" si="71"/>
-        <v>47,</v>
+        <v>999,</v>
       </c>
       <c r="S75" t="str">
         <f t="shared" si="71"/>
-        <v>48,</v>
+        <v>999,</v>
       </c>
       <c r="T75" t="str">
         <f t="shared" si="71"/>
-        <v>49,</v>
+        <v>999,</v>
       </c>
       <c r="U75" t="str">
         <f t="shared" si="71"/>
@@ -11840,63 +12093,63 @@
       </c>
       <c r="V75" t="str">
         <f t="shared" si="71"/>
-        <v>999,</v>
+        <v>14,</v>
       </c>
       <c r="W75" t="str">
         <f t="shared" si="71"/>
-        <v>999,</v>
+        <v>15,</v>
       </c>
       <c r="X75" t="str">
         <f t="shared" si="71"/>
-        <v>999,</v>
+        <v>16,</v>
       </c>
       <c r="Y75" t="str">
         <f t="shared" si="71"/>
-        <v>999,</v>
+        <v>17,</v>
       </c>
       <c r="Z75" t="str">
         <f t="shared" si="71"/>
-        <v>999,</v>
+        <v>18,</v>
       </c>
       <c r="AA75" t="str">
         <f t="shared" si="71"/>
-        <v>999,</v>
+        <v>19,</v>
       </c>
       <c r="AB75" t="str">
         <f t="shared" si="71"/>
-        <v>999,</v>
+        <v>20,</v>
       </c>
       <c r="AC75" t="str">
         <f t="shared" si="71"/>
-        <v>999,</v>
+        <v>21,</v>
       </c>
       <c r="AD75" t="str">
         <f t="shared" si="71"/>
-        <v>999,</v>
+        <v>22,</v>
       </c>
       <c r="AE75" t="str">
         <f t="shared" si="71"/>
-        <v>999,</v>
+        <v>23,</v>
       </c>
       <c r="AF75" t="str">
         <f t="shared" si="71"/>
-        <v>999,</v>
+        <v>24,</v>
       </c>
       <c r="AG75" t="str">
         <f t="shared" si="71"/>
-        <v>999,</v>
+        <v>25,</v>
       </c>
       <c r="AH75" t="str">
         <f t="shared" si="71"/>
-        <v>999,</v>
+        <v>26,</v>
       </c>
       <c r="AI75" t="str">
         <f t="shared" si="71"/>
-        <v>999,</v>
+        <v>27,</v>
       </c>
       <c r="AJ75" t="str">
         <f t="shared" si="71"/>
-        <v>999,</v>
+        <v>28,</v>
       </c>
       <c r="AK75" t="str">
         <f t="shared" si="71"/>
@@ -11989,15 +12242,15 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="65"/>
-        <v>34,</v>
+        <v>999,</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="65"/>
-        <v>33,</v>
+        <v>999,</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="65"/>
-        <v>32,</v>
+        <v>999,</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" si="65"/>
@@ -12005,31 +12258,31 @@
       </c>
       <c r="K76" t="str">
         <f t="shared" si="65"/>
-        <v>6,</v>
+        <v>999,</v>
       </c>
       <c r="L76" t="str">
         <f t="shared" si="65"/>
-        <v>5,</v>
+        <v>999,</v>
       </c>
       <c r="M76" t="str">
         <f t="shared" si="65"/>
-        <v>4,</v>
+        <v>999,</v>
       </c>
       <c r="N76" t="str">
         <f t="shared" si="65"/>
-        <v>3,</v>
+        <v>999,</v>
       </c>
       <c r="O76" t="str">
         <f t="shared" si="65"/>
-        <v>2,</v>
+        <v>999,</v>
       </c>
       <c r="P76" t="str">
         <f t="shared" ref="P76:BA76" si="72">IF($C$25&gt;$B76,P56,"")</f>
-        <v>1,</v>
+        <v>999,</v>
       </c>
       <c r="Q76" t="str">
         <f t="shared" si="72"/>
-        <v>0,</v>
+        <v>999,</v>
       </c>
       <c r="R76" t="str">
         <f t="shared" si="72"/>
@@ -12065,31 +12318,31 @@
       </c>
       <c r="Z76" t="str">
         <f t="shared" si="72"/>
-        <v>999,</v>
+        <v>13,</v>
       </c>
       <c r="AA76" t="str">
         <f t="shared" si="72"/>
-        <v>999,</v>
+        <v>12,</v>
       </c>
       <c r="AB76" t="str">
         <f t="shared" si="72"/>
-        <v>999,</v>
+        <v>11,</v>
       </c>
       <c r="AC76" t="str">
         <f t="shared" si="72"/>
-        <v>999,</v>
+        <v>10,</v>
       </c>
       <c r="AD76" t="str">
         <f t="shared" si="72"/>
-        <v>999,</v>
+        <v>9,</v>
       </c>
       <c r="AE76" t="str">
         <f t="shared" si="72"/>
-        <v>999,</v>
+        <v>8,</v>
       </c>
       <c r="AF76" t="str">
         <f t="shared" si="72"/>
-        <v>999,</v>
+        <v>7,</v>
       </c>
       <c r="AG76" t="str">
         <f t="shared" si="72"/>
@@ -12097,15 +12350,15 @@
       </c>
       <c r="AH76" t="str">
         <f t="shared" si="72"/>
-        <v>999,</v>
+        <v>31,</v>
       </c>
       <c r="AI76" t="str">
         <f t="shared" si="72"/>
-        <v>999,</v>
+        <v>30,</v>
       </c>
       <c r="AJ76" t="str">
         <f t="shared" si="72"/>
-        <v>999,</v>
+        <v>29,</v>
       </c>
       <c r="AK76" t="str">
         <f t="shared" si="72"/>
@@ -14277,39 +14530,39 @@
       </c>
       <c r="Q89" t="str">
         <f t="shared" si="82"/>
-        <v>336,</v>
+        <v>999,</v>
       </c>
       <c r="R89" t="str">
         <f t="shared" si="82"/>
-        <v>337,</v>
+        <v>999,</v>
       </c>
       <c r="S89" t="str">
         <f t="shared" si="82"/>
-        <v>338,</v>
+        <v>999,</v>
       </c>
       <c r="T89" t="str">
         <f t="shared" si="82"/>
-        <v>339,</v>
+        <v>330,</v>
       </c>
       <c r="U89" t="str">
         <f t="shared" si="82"/>
-        <v>340,</v>
+        <v>331,</v>
       </c>
       <c r="V89" t="str">
         <f t="shared" si="82"/>
-        <v>341,</v>
+        <v>332,</v>
       </c>
       <c r="W89" t="str">
         <f t="shared" si="82"/>
-        <v>999,</v>
+        <v>333,</v>
       </c>
       <c r="X89" t="str">
         <f t="shared" si="82"/>
-        <v>999,</v>
+        <v>334,</v>
       </c>
       <c r="Y89" t="str">
         <f t="shared" si="82"/>
-        <v>999,</v>
+        <v>335,</v>
       </c>
       <c r="Z89" t="str">
         <f t="shared" si="82"/>
@@ -14462,87 +14715,87 @@
       </c>
       <c r="K90" t="str">
         <f t="shared" si="83"/>
-        <v>308,</v>
+        <v>329,</v>
       </c>
       <c r="L90" t="str">
         <f t="shared" si="83"/>
-        <v>307,</v>
+        <v>328,</v>
       </c>
       <c r="M90" t="str">
         <f t="shared" si="83"/>
-        <v>306,</v>
+        <v>327,</v>
       </c>
       <c r="N90" t="str">
         <f t="shared" si="83"/>
-        <v>305,</v>
+        <v>326,</v>
       </c>
       <c r="O90" t="str">
         <f t="shared" si="83"/>
-        <v>304,</v>
+        <v>325,</v>
       </c>
       <c r="P90" t="str">
         <f t="shared" si="83"/>
-        <v>303,</v>
+        <v>324,</v>
       </c>
       <c r="Q90" t="str">
         <f t="shared" si="83"/>
-        <v>302,</v>
+        <v>323,</v>
       </c>
       <c r="R90" t="str">
         <f t="shared" si="83"/>
-        <v>301,</v>
+        <v>322,</v>
       </c>
       <c r="S90" t="str">
         <f t="shared" si="82"/>
-        <v>300,</v>
+        <v>321,</v>
       </c>
       <c r="T90" t="str">
         <f t="shared" si="82"/>
-        <v>299,</v>
+        <v>320,</v>
       </c>
       <c r="U90" t="str">
         <f t="shared" si="82"/>
-        <v>298,</v>
+        <v>319,</v>
       </c>
       <c r="V90" t="str">
         <f t="shared" si="82"/>
-        <v>297,</v>
+        <v>318,</v>
       </c>
       <c r="W90" t="str">
         <f t="shared" si="82"/>
-        <v>296,</v>
+        <v>317,</v>
       </c>
       <c r="X90" t="str">
         <f t="shared" si="82"/>
-        <v>295,</v>
+        <v>316,</v>
       </c>
       <c r="Y90" t="str">
         <f t="shared" si="82"/>
-        <v>294,</v>
+        <v>315,</v>
       </c>
       <c r="Z90" t="str">
         <f t="shared" si="82"/>
-        <v>293,</v>
+        <v>314,</v>
       </c>
       <c r="AA90" t="str">
         <f t="shared" si="82"/>
-        <v>292,</v>
+        <v>313,</v>
       </c>
       <c r="AB90" t="str">
         <f t="shared" si="82"/>
-        <v>291,</v>
+        <v>312,</v>
       </c>
       <c r="AC90" t="str">
         <f t="shared" si="82"/>
-        <v>290,</v>
+        <v>311,</v>
       </c>
       <c r="AD90" t="str">
         <f t="shared" si="82"/>
-        <v>289,</v>
+        <v>310,</v>
       </c>
       <c r="AE90" t="str">
         <f t="shared" si="82"/>
-        <v>288,</v>
+        <v>309,</v>
       </c>
       <c r="AF90" t="str">
         <f t="shared" si="82"/>
@@ -14655,119 +14908,119 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="82"/>
-        <v>260,</v>
+        <v>999,</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="82"/>
-        <v>261,</v>
+        <v>999,</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="82"/>
-        <v>262,</v>
+        <v>233,</v>
       </c>
       <c r="J91" t="str">
         <f t="shared" si="82"/>
-        <v>263,</v>
+        <v>234,</v>
       </c>
       <c r="K91" t="str">
         <f t="shared" si="82"/>
-        <v>264,</v>
+        <v>235,</v>
       </c>
       <c r="L91" t="str">
         <f t="shared" si="82"/>
-        <v>265,</v>
+        <v>236,</v>
       </c>
       <c r="M91" t="str">
         <f t="shared" si="82"/>
-        <v>266,</v>
+        <v>237,</v>
       </c>
       <c r="N91" t="str">
         <f t="shared" si="82"/>
-        <v>267,</v>
+        <v>238,</v>
       </c>
       <c r="O91" t="str">
         <f t="shared" si="82"/>
-        <v>268,</v>
+        <v>239,</v>
       </c>
       <c r="P91" t="str">
         <f t="shared" si="82"/>
-        <v>269,</v>
+        <v>240,</v>
       </c>
       <c r="Q91" t="str">
         <f t="shared" si="82"/>
-        <v>270,</v>
+        <v>241,</v>
       </c>
       <c r="R91" t="str">
         <f t="shared" si="82"/>
-        <v>271,</v>
+        <v>242,</v>
       </c>
       <c r="S91" t="str">
         <f t="shared" si="82"/>
-        <v>272,</v>
+        <v>243,</v>
       </c>
       <c r="T91" t="str">
         <f t="shared" si="82"/>
-        <v>273,</v>
+        <v>244,</v>
       </c>
       <c r="U91" t="str">
         <f t="shared" si="82"/>
-        <v>274,</v>
+        <v>245,</v>
       </c>
       <c r="V91" t="str">
         <f t="shared" si="82"/>
-        <v>275,</v>
+        <v>246,</v>
       </c>
       <c r="W91" t="str">
         <f t="shared" si="82"/>
-        <v>276,</v>
+        <v>247,</v>
       </c>
       <c r="X91" t="str">
         <f t="shared" si="82"/>
-        <v>277,</v>
+        <v>248,</v>
       </c>
       <c r="Y91" t="str">
         <f t="shared" si="82"/>
-        <v>278,</v>
+        <v>249,</v>
       </c>
       <c r="Z91" t="str">
         <f t="shared" si="82"/>
-        <v>279,</v>
+        <v>250,</v>
       </c>
       <c r="AA91" t="str">
         <f t="shared" si="82"/>
-        <v>280,</v>
+        <v>251,</v>
       </c>
       <c r="AB91" t="str">
         <f t="shared" si="82"/>
-        <v>281,</v>
+        <v>252,</v>
       </c>
       <c r="AC91" t="str">
         <f t="shared" si="82"/>
-        <v>282,</v>
+        <v>253,</v>
       </c>
       <c r="AD91" t="str">
         <f t="shared" si="82"/>
-        <v>283,</v>
+        <v>254,</v>
       </c>
       <c r="AE91" t="str">
         <f t="shared" si="82"/>
-        <v>284,</v>
+        <v>255,</v>
       </c>
       <c r="AF91" t="str">
         <f t="shared" si="82"/>
-        <v>285,</v>
+        <v>256,</v>
       </c>
       <c r="AG91" t="str">
         <f t="shared" si="82"/>
-        <v>286,</v>
+        <v>257,</v>
       </c>
       <c r="AH91" t="str">
         <f t="shared" si="82"/>
-        <v>287,</v>
+        <v>258,</v>
       </c>
       <c r="AI91" t="str">
         <f t="shared" si="82"/>
-        <v>999,</v>
+        <v>259,</v>
       </c>
       <c r="AJ91" t="str">
         <f t="shared" si="82"/>
@@ -14852,143 +15105,143 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="82"/>
-        <v>199,</v>
+        <v>999,</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="82"/>
-        <v>198,</v>
+        <v>999,</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="82"/>
-        <v>197,</v>
+        <v>232,</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="82"/>
-        <v>196,</v>
+        <v>231,</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="82"/>
-        <v>195,</v>
+        <v>230,</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="82"/>
-        <v>194,</v>
+        <v>229,</v>
       </c>
       <c r="J92" t="str">
         <f t="shared" si="82"/>
-        <v>193,</v>
+        <v>228,</v>
       </c>
       <c r="K92" t="str">
         <f t="shared" si="82"/>
-        <v>192,</v>
+        <v>227,</v>
       </c>
       <c r="L92" t="str">
         <f t="shared" si="82"/>
-        <v>191,</v>
+        <v>226,</v>
       </c>
       <c r="M92" t="str">
         <f t="shared" si="82"/>
-        <v>190,</v>
+        <v>225,</v>
       </c>
       <c r="N92" t="str">
         <f t="shared" si="82"/>
-        <v>189,</v>
+        <v>224,</v>
       </c>
       <c r="O92" t="str">
         <f t="shared" si="82"/>
-        <v>188,</v>
+        <v>223,</v>
       </c>
       <c r="P92" t="str">
         <f t="shared" si="82"/>
-        <v>187,</v>
+        <v>222,</v>
       </c>
       <c r="Q92" t="str">
         <f t="shared" si="82"/>
-        <v>186,</v>
+        <v>221,</v>
       </c>
       <c r="R92" t="str">
         <f t="shared" si="82"/>
-        <v>185,</v>
+        <v>220,</v>
       </c>
       <c r="S92" t="str">
         <f t="shared" si="82"/>
-        <v>184,</v>
+        <v>219,</v>
       </c>
       <c r="T92" t="str">
         <f t="shared" si="82"/>
-        <v>183,</v>
+        <v>218,</v>
       </c>
       <c r="U92" t="str">
         <f t="shared" si="82"/>
-        <v>182,</v>
+        <v>217,</v>
       </c>
       <c r="V92" t="str">
         <f t="shared" si="82"/>
-        <v>181,</v>
+        <v>216,</v>
       </c>
       <c r="W92" t="str">
         <f t="shared" si="82"/>
-        <v>180,</v>
+        <v>215,</v>
       </c>
       <c r="X92" t="str">
         <f t="shared" si="82"/>
-        <v>179,</v>
+        <v>214,</v>
       </c>
       <c r="Y92" t="str">
         <f t="shared" si="82"/>
-        <v>178,</v>
+        <v>213,</v>
       </c>
       <c r="Z92" t="str">
         <f t="shared" si="82"/>
-        <v>177,</v>
+        <v>212,</v>
       </c>
       <c r="AA92" t="str">
         <f t="shared" si="82"/>
-        <v>176,</v>
+        <v>211,</v>
       </c>
       <c r="AB92" t="str">
         <f t="shared" si="82"/>
-        <v>175,</v>
+        <v>210,</v>
       </c>
       <c r="AC92" t="str">
         <f t="shared" si="82"/>
-        <v>174,</v>
+        <v>209,</v>
       </c>
       <c r="AD92" t="str">
         <f t="shared" si="82"/>
-        <v>173,</v>
+        <v>208,</v>
       </c>
       <c r="AE92" t="str">
         <f t="shared" si="82"/>
-        <v>172,</v>
+        <v>207,</v>
       </c>
       <c r="AF92" t="str">
         <f t="shared" si="82"/>
-        <v>171,</v>
+        <v>206,</v>
       </c>
       <c r="AG92" t="str">
         <f t="shared" si="82"/>
-        <v>170,</v>
+        <v>205,</v>
       </c>
       <c r="AH92" t="str">
         <f t="shared" si="82"/>
-        <v>169,</v>
+        <v>204,</v>
       </c>
       <c r="AI92" t="str">
         <f t="shared" si="82"/>
-        <v>168,</v>
+        <v>203,</v>
       </c>
       <c r="AJ92" t="str">
         <f t="shared" si="82"/>
-        <v>167,</v>
+        <v>202,</v>
       </c>
       <c r="AK92" t="str">
         <f t="shared" si="82"/>
-        <v>166,</v>
+        <v>201,</v>
       </c>
       <c r="AL92" t="str">
         <f t="shared" si="82"/>
-        <v>999,</v>
+        <v>200,</v>
       </c>
       <c r="AM92" t="str">
         <f t="shared" si="82"/>
@@ -15057,151 +15310,151 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" si="83"/>
-        <v>129,</v>
+        <v>92,</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="82"/>
-        <v>130,</v>
+        <v>93,</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="82"/>
-        <v>131,</v>
+        <v>94,</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="82"/>
-        <v>132,</v>
+        <v>95,</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="82"/>
-        <v>133,</v>
+        <v>96,</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="82"/>
-        <v>134,</v>
+        <v>97,</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="82"/>
-        <v>135,</v>
+        <v>98,</v>
       </c>
       <c r="J93" t="str">
         <f t="shared" si="82"/>
-        <v>136,</v>
+        <v>99,</v>
       </c>
       <c r="K93" t="str">
         <f t="shared" si="82"/>
-        <v>137,</v>
+        <v>100,</v>
       </c>
       <c r="L93" t="str">
         <f t="shared" si="82"/>
-        <v>138,</v>
+        <v>101,</v>
       </c>
       <c r="M93" t="str">
         <f t="shared" si="82"/>
-        <v>139,</v>
+        <v>102,</v>
       </c>
       <c r="N93" t="str">
         <f t="shared" si="82"/>
-        <v>140,</v>
+        <v>103,</v>
       </c>
       <c r="O93" t="str">
         <f t="shared" si="82"/>
-        <v>141,</v>
+        <v>104,</v>
       </c>
       <c r="P93" t="str">
         <f t="shared" si="82"/>
-        <v>142,</v>
+        <v>105,</v>
       </c>
       <c r="Q93" t="str">
         <f t="shared" si="82"/>
-        <v>143,</v>
+        <v>106,</v>
       </c>
       <c r="R93" t="str">
         <f t="shared" si="82"/>
-        <v>144,</v>
+        <v>107,</v>
       </c>
       <c r="S93" t="str">
         <f t="shared" si="82"/>
-        <v>145,</v>
+        <v>108,</v>
       </c>
       <c r="T93" t="str">
         <f t="shared" si="82"/>
-        <v>146,</v>
+        <v>109,</v>
       </c>
       <c r="U93" t="str">
         <f t="shared" si="82"/>
-        <v>147,</v>
+        <v>110,</v>
       </c>
       <c r="V93" t="str">
         <f t="shared" si="82"/>
-        <v>148,</v>
+        <v>111,</v>
       </c>
       <c r="W93" t="str">
         <f t="shared" si="82"/>
-        <v>149,</v>
+        <v>112,</v>
       </c>
       <c r="X93" t="str">
         <f t="shared" si="82"/>
-        <v>150,</v>
+        <v>113,</v>
       </c>
       <c r="Y93" t="str">
         <f t="shared" si="82"/>
-        <v>151,</v>
+        <v>114,</v>
       </c>
       <c r="Z93" t="str">
         <f t="shared" si="82"/>
-        <v>152,</v>
+        <v>115,</v>
       </c>
       <c r="AA93" t="str">
         <f t="shared" si="82"/>
-        <v>153,</v>
+        <v>116,</v>
       </c>
       <c r="AB93" t="str">
         <f t="shared" si="82"/>
-        <v>154,</v>
+        <v>117,</v>
       </c>
       <c r="AC93" t="str">
         <f t="shared" si="82"/>
-        <v>155,</v>
+        <v>118,</v>
       </c>
       <c r="AD93" t="str">
         <f t="shared" si="82"/>
-        <v>156,</v>
+        <v>119,</v>
       </c>
       <c r="AE93" t="str">
         <f t="shared" si="82"/>
-        <v>157,</v>
+        <v>120,</v>
       </c>
       <c r="AF93" t="str">
         <f t="shared" si="82"/>
-        <v>158,</v>
+        <v>121,</v>
       </c>
       <c r="AG93" t="str">
         <f t="shared" si="82"/>
-        <v>159,</v>
+        <v>122,</v>
       </c>
       <c r="AH93" t="str">
         <f t="shared" si="82"/>
-        <v>160,</v>
+        <v>123,</v>
       </c>
       <c r="AI93" t="str">
         <f t="shared" si="82"/>
-        <v>161,</v>
+        <v>124,</v>
       </c>
       <c r="AJ93" t="str">
         <f t="shared" si="82"/>
-        <v>162,</v>
+        <v>125,</v>
       </c>
       <c r="AK93" t="str">
         <f t="shared" si="82"/>
-        <v>163,</v>
+        <v>126,</v>
       </c>
       <c r="AL93" t="str">
         <f t="shared" si="82"/>
-        <v>164,</v>
+        <v>127,</v>
       </c>
       <c r="AM93" t="str">
         <f t="shared" si="82"/>
-        <v>165,</v>
+        <v>128,</v>
       </c>
       <c r="AN93" t="str">
         <f t="shared" si="82"/>
@@ -15270,143 +15523,143 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" si="82"/>
-        <v>70,</v>
+        <v>999,</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="82"/>
-        <v>69,</v>
+        <v>999,</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="82"/>
-        <v>68,</v>
+        <v>999,</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="82"/>
-        <v>67,</v>
+        <v>999,</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="82"/>
-        <v>66,</v>
+        <v>999,</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="82"/>
-        <v>65,</v>
+        <v>999,</v>
       </c>
       <c r="J94" t="str">
         <f t="shared" si="82"/>
-        <v>64,</v>
+        <v>999,</v>
       </c>
       <c r="K94" t="str">
         <f t="shared" si="82"/>
-        <v>63,</v>
+        <v>999,</v>
       </c>
       <c r="L94" t="str">
         <f t="shared" si="82"/>
-        <v>62,</v>
+        <v>999,</v>
       </c>
       <c r="M94" t="str">
         <f t="shared" si="82"/>
-        <v>61,</v>
+        <v>999,</v>
       </c>
       <c r="N94" t="str">
         <f t="shared" si="82"/>
-        <v>60,</v>
+        <v>999,</v>
       </c>
       <c r="O94" t="str">
         <f t="shared" si="82"/>
-        <v>59,</v>
+        <v>999,</v>
       </c>
       <c r="P94" t="str">
         <f t="shared" si="82"/>
-        <v>58,</v>
+        <v>999,</v>
       </c>
       <c r="Q94" t="str">
         <f t="shared" si="82"/>
-        <v>57,</v>
+        <v>999,</v>
       </c>
       <c r="R94" t="str">
         <f t="shared" si="82"/>
-        <v>56,</v>
+        <v>91,</v>
       </c>
       <c r="S94" t="str">
         <f t="shared" si="82"/>
-        <v>55,</v>
+        <v>90,</v>
       </c>
       <c r="T94" t="str">
         <f t="shared" si="82"/>
-        <v>54,</v>
+        <v>89,</v>
       </c>
       <c r="U94" t="str">
         <f t="shared" si="82"/>
-        <v>53,</v>
+        <v>88,</v>
       </c>
       <c r="V94" t="str">
         <f t="shared" si="82"/>
-        <v>52,</v>
+        <v>87,</v>
       </c>
       <c r="W94" t="str">
         <f t="shared" si="82"/>
-        <v>51,</v>
+        <v>86,</v>
       </c>
       <c r="X94" t="str">
         <f t="shared" ref="D94:BA99" si="84">IF($C$26&gt;X$88,X74,"")</f>
-        <v>50,</v>
+        <v>85,</v>
       </c>
       <c r="Y94" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>84,</v>
       </c>
       <c r="Z94" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>83,</v>
       </c>
       <c r="AA94" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>82,</v>
       </c>
       <c r="AB94" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>81,</v>
       </c>
       <c r="AC94" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>80,</v>
       </c>
       <c r="AD94" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>79,</v>
       </c>
       <c r="AE94" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>78,</v>
       </c>
       <c r="AF94" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>77,</v>
       </c>
       <c r="AG94" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>76,</v>
       </c>
       <c r="AH94" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>75,</v>
       </c>
       <c r="AI94" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>74,</v>
       </c>
       <c r="AJ94" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>73,</v>
       </c>
       <c r="AK94" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>72,</v>
       </c>
       <c r="AL94" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>71,</v>
       </c>
       <c r="AM94" t="str">
         <f t="shared" si="84"/>
@@ -15487,63 +15740,63 @@
       </c>
       <c r="F95" t="str">
         <f t="shared" si="84"/>
-        <v>35,</v>
+        <v>999,</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="84"/>
-        <v>36,</v>
+        <v>999,</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="84"/>
-        <v>37,</v>
+        <v>999,</v>
       </c>
       <c r="I95" t="str">
         <f t="shared" si="84"/>
-        <v>38,</v>
+        <v>999,</v>
       </c>
       <c r="J95" t="str">
         <f t="shared" si="84"/>
-        <v>39,</v>
+        <v>999,</v>
       </c>
       <c r="K95" t="str">
         <f t="shared" si="84"/>
-        <v>40,</v>
+        <v>999,</v>
       </c>
       <c r="L95" t="str">
         <f t="shared" si="84"/>
-        <v>41,</v>
+        <v>999,</v>
       </c>
       <c r="M95" t="str">
         <f t="shared" si="84"/>
-        <v>42,</v>
+        <v>999,</v>
       </c>
       <c r="N95" t="str">
         <f t="shared" si="84"/>
-        <v>43,</v>
+        <v>999,</v>
       </c>
       <c r="O95" t="str">
         <f t="shared" si="84"/>
-        <v>44,</v>
+        <v>999,</v>
       </c>
       <c r="P95" t="str">
         <f t="shared" si="84"/>
-        <v>45,</v>
+        <v>999,</v>
       </c>
       <c r="Q95" t="str">
         <f t="shared" si="84"/>
-        <v>46,</v>
+        <v>999,</v>
       </c>
       <c r="R95" t="str">
         <f t="shared" si="84"/>
-        <v>47,</v>
+        <v>999,</v>
       </c>
       <c r="S95" t="str">
         <f t="shared" si="84"/>
-        <v>48,</v>
+        <v>999,</v>
       </c>
       <c r="T95" t="str">
         <f t="shared" si="84"/>
-        <v>49,</v>
+        <v>999,</v>
       </c>
       <c r="U95" t="str">
         <f t="shared" si="84"/>
@@ -15551,63 +15804,63 @@
       </c>
       <c r="V95" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>14,</v>
       </c>
       <c r="W95" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>15,</v>
       </c>
       <c r="X95" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>16,</v>
       </c>
       <c r="Y95" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>17,</v>
       </c>
       <c r="Z95" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>18,</v>
       </c>
       <c r="AA95" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>19,</v>
       </c>
       <c r="AB95" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>20,</v>
       </c>
       <c r="AC95" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>21,</v>
       </c>
       <c r="AD95" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>22,</v>
       </c>
       <c r="AE95" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>23,</v>
       </c>
       <c r="AF95" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>24,</v>
       </c>
       <c r="AG95" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>25,</v>
       </c>
       <c r="AH95" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>26,</v>
       </c>
       <c r="AI95" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>27,</v>
       </c>
       <c r="AJ95" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>28,</v>
       </c>
       <c r="AK95" t="str">
         <f t="shared" si="84"/>
@@ -15700,15 +15953,15 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="84"/>
-        <v>34,</v>
+        <v>999,</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="84"/>
-        <v>33,</v>
+        <v>999,</v>
       </c>
       <c r="I96" t="str">
         <f t="shared" si="84"/>
-        <v>32,</v>
+        <v>999,</v>
       </c>
       <c r="J96" t="str">
         <f t="shared" si="84"/>
@@ -15716,31 +15969,31 @@
       </c>
       <c r="K96" t="str">
         <f t="shared" si="84"/>
-        <v>6,</v>
+        <v>999,</v>
       </c>
       <c r="L96" t="str">
         <f t="shared" si="84"/>
-        <v>5,</v>
+        <v>999,</v>
       </c>
       <c r="M96" t="str">
         <f t="shared" si="84"/>
-        <v>4,</v>
+        <v>999,</v>
       </c>
       <c r="N96" t="str">
         <f t="shared" si="84"/>
-        <v>3,</v>
+        <v>999,</v>
       </c>
       <c r="O96" t="str">
         <f t="shared" si="84"/>
-        <v>2,</v>
+        <v>999,</v>
       </c>
       <c r="P96" t="str">
         <f t="shared" si="84"/>
-        <v>1,</v>
+        <v>999,</v>
       </c>
       <c r="Q96" t="str">
         <f t="shared" si="84"/>
-        <v>0,</v>
+        <v>999,</v>
       </c>
       <c r="R96" t="str">
         <f t="shared" si="84"/>
@@ -15776,31 +16029,31 @@
       </c>
       <c r="Z96" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>13,</v>
       </c>
       <c r="AA96" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>12,</v>
       </c>
       <c r="AB96" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>11,</v>
       </c>
       <c r="AC96" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>10,</v>
       </c>
       <c r="AD96" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>9,</v>
       </c>
       <c r="AE96" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>8,</v>
       </c>
       <c r="AF96" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>7,</v>
       </c>
       <c r="AG96" t="str">
         <f t="shared" si="84"/>
@@ -15808,15 +16061,15 @@
       </c>
       <c r="AH96" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>31,</v>
       </c>
       <c r="AI96" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>30,</v>
       </c>
       <c r="AJ96" t="str">
         <f t="shared" si="84"/>
-        <v>999,</v>
+        <v>29,</v>
       </c>
       <c r="AK96" t="str">
         <f t="shared" si="84"/>
@@ -17777,8 +18030,8 @@
         <v>0</v>
       </c>
       <c r="C108" t="str">
-        <f>CONCATENATE(C89,D89,E89,F89,G89,H89,I89,J89,K89,L89,M89,N89,O89,P89,Q89,R89,S89,T89,U89,V89,W89,X89,Y89,Z89,AA89,AB89,AC89,AD89,AE89,AF89,AG89,AH89,AI89,AJ89,AK89,AL89,AM89,AN89,AO89,AP89,AQ89,AR89,AS89,AT89,AU89,AV89,AW89,AX89,AY89,AZ89,BA89)</f>
-        <v>999,999,999,999,999,999,999,999,999,999,999,999,999,999,336,337,338,339,340,341,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,</v>
+        <f>CONCATENATE(BA89,AZ89,AY89,AX89,AW89,AV89,AU89,AT89,AS89,AR89,AQ89,AP89,AO89,AN89,AM89,AL89,AK89,AJ89,AI89,AH89,AG89,AF89,AE89,AD89,AC89,AB89,AA89,Z89,Y89,X89,W89,V89,U89,T89,S89,R89,Q89,P89,O89,N89,M89,L89,K89,J89,I89,H89,G89,F89,E89,D89,C89)</f>
+        <v>999,999,999,999,999,999,999,999,999,999,999,999,999,999,335,334,333,332,331,330,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,</v>
       </c>
     </row>
     <row r="109" spans="2:53" hidden="1" x14ac:dyDescent="0.2">
@@ -17786,8 +18039,8 @@
         <v>1</v>
       </c>
       <c r="C109" t="str">
-        <f t="shared" ref="C109:C124" si="87">CONCATENATE(C90,D90,E90,F90,G90,H90,I90,J90,K90,L90,M90,N90,O90,P90,Q90,R90,S90,T90,U90,V90,W90,X90,Y90,Z90,AA90,AB90,AC90,AD90,AE90,AF90,AG90,AH90,AI90,AJ90,AK90,AL90,AM90,AN90,AO90,AP90,AQ90,AR90,AS90,AT90,AU90,AV90,AW90,AX90,AY90,AZ90,BA90)</f>
-        <v>999,999,999,999,999,999,999,999,308,307,306,305,304,303,302,301,300,299,298,297,296,295,294,293,292,291,290,289,288,999,999,999,999,999,999,999,999,</v>
+        <f t="shared" ref="C109:C124" si="87">CONCATENATE(BA90,AZ90,AY90,AX90,AW90,AV90,AU90,AT90,AS90,AR90,AQ90,AP90,AO90,AN90,AM90,AL90,AK90,AJ90,AI90,AH90,AG90,AF90,AE90,AD90,AC90,AB90,AA90,Z90,Y90,X90,W90,V90,U90,T90,S90,R90,Q90,P90,O90,N90,M90,L90,K90,J90,I90,H90,G90,F90,E90,D90,C90)</f>
+        <v>999,999,999,999,999,999,999,999,309,310,311,312,313,314,315,316,317,318,319,320,321,322,323,324,325,326,327,328,329,999,999,999,999,999,999,999,999,</v>
       </c>
     </row>
     <row r="110" spans="2:53" hidden="1" x14ac:dyDescent="0.2">
@@ -17796,7 +18049,7 @@
       </c>
       <c r="C110" t="str">
         <f t="shared" si="87"/>
-        <v>999,999,999,999,260,261,262,263,264,265,266,267,268,269,270,271,272,273,274,275,276,277,278,279,280,281,282,283,284,285,286,287,999,999,999,999,999,</v>
+        <v>999,999,999,999,259,258,257,256,255,254,253,252,251,250,249,248,247,246,245,244,243,242,241,240,239,238,237,236,235,234,233,999,999,999,999,999,999,</v>
       </c>
     </row>
     <row r="111" spans="2:53" hidden="1" x14ac:dyDescent="0.2">
@@ -17805,7 +18058,7 @@
       </c>
       <c r="C111" t="str">
         <f t="shared" si="87"/>
-        <v>999,199,198,197,196,195,194,193,192,191,190,189,188,187,186,185,184,183,182,181,180,179,178,177,176,175,174,173,172,171,170,169,168,167,166,999,999,</v>
+        <v>999,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214,215,216,217,218,219,220,221,222,223,224,225,226,227,228,229,230,231,232,999,999,999,</v>
       </c>
     </row>
     <row r="112" spans="2:53" hidden="1" x14ac:dyDescent="0.2">
@@ -17814,7 +18067,7 @@
       </c>
       <c r="C112" t="str">
         <f t="shared" si="87"/>
-        <v>129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146,147,148,149,150,151,152,153,154,155,156,157,158,159,160,161,162,163,164,165,</v>
+        <v>128,127,126,125,124,123,122,121,120,119,118,117,116,115,114,113,112,111,110,109,108,107,106,105,104,103,102,101,100,99,98,97,96,95,94,93,92,</v>
       </c>
     </row>
     <row r="113" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -17823,7 +18076,7 @@
       </c>
       <c r="C113" t="str">
         <f t="shared" si="87"/>
-        <v>999,70,69,68,67,66,65,64,63,62,61,60,59,58,57,56,55,54,53,52,51,50,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,</v>
+        <v>999,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,</v>
       </c>
     </row>
     <row r="114" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -17832,7 +18085,7 @@
       </c>
       <c r="C114" t="str">
         <f t="shared" si="87"/>
-        <v>999,999,999,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,</v>
+        <v>999,999,999,28,27,26,25,24,23,22,21,20,19,18,17,16,15,14,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,</v>
       </c>
     </row>
     <row r="115" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -17841,7 +18094,7 @@
       </c>
       <c r="C115" t="str">
         <f t="shared" si="87"/>
-        <v>999,999,999,999,34,33,32,999,6,5,4,3,2,1,0,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,</v>
+        <v>999,999,999,29,30,31,999,7,8,9,10,11,12,13,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,</v>
       </c>
     </row>
     <row r="116" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -17929,13 +18182,13 @@
     <row r="126" spans="2:3" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="127" spans="2:3" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="128" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C128" s="6"/>
+      <c r="C128" s="7"/>
     </row>
     <row r="129" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" s="3"/>
-      <c r="C129" s="6" t="str">
-        <f>CONCATENATE("uint16_t leftcanopy [][",$C$26,"] = {")</f>
-        <v>uint16_t leftcanopy [][37] = {</v>
+      <c r="C129" s="7" t="str">
+        <f>CONCATENATE("uint16_t rightcanopy [][",$C$26,"] = {")</f>
+        <v>uint16_t rightcanopy [][37] = {</v>
       </c>
     </row>
     <row r="130" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -17944,7 +18197,7 @@
       </c>
       <c r="C130" t="str">
         <f>CONCATENATE("{",LEFT(C108,LEN(C108)-1),"},")</f>
-        <v>{999,999,999,999,999,999,999,999,999,999,999,999,999,999,336,337,338,339,340,341,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
+        <v>{999,999,999,999,999,999,999,999,999,999,999,999,999,999,335,334,333,332,331,330,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
       </c>
     </row>
     <row r="131" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -17953,7 +18206,7 @@
       </c>
       <c r="C131" t="str">
         <f t="shared" ref="C131:C146" si="88">CONCATENATE("{",LEFT(C109,LEN(C109)-1),"},")</f>
-        <v>{999,999,999,999,999,999,999,999,308,307,306,305,304,303,302,301,300,299,298,297,296,295,294,293,292,291,290,289,288,999,999,999,999,999,999,999,999},</v>
+        <v>{999,999,999,999,999,999,999,999,309,310,311,312,313,314,315,316,317,318,319,320,321,322,323,324,325,326,327,328,329,999,999,999,999,999,999,999,999},</v>
       </c>
     </row>
     <row r="132" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -17962,7 +18215,7 @@
       </c>
       <c r="C132" t="str">
         <f t="shared" si="88"/>
-        <v>{999,999,999,999,260,261,262,263,264,265,266,267,268,269,270,271,272,273,274,275,276,277,278,279,280,281,282,283,284,285,286,287,999,999,999,999,999},</v>
+        <v>{999,999,999,999,259,258,257,256,255,254,253,252,251,250,249,248,247,246,245,244,243,242,241,240,239,238,237,236,235,234,233,999,999,999,999,999,999},</v>
       </c>
     </row>
     <row r="133" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -17971,7 +18224,7 @@
       </c>
       <c r="C133" t="str">
         <f t="shared" si="88"/>
-        <v>{999,199,198,197,196,195,194,193,192,191,190,189,188,187,186,185,184,183,182,181,180,179,178,177,176,175,174,173,172,171,170,169,168,167,166,999,999},</v>
+        <v>{999,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214,215,216,217,218,219,220,221,222,223,224,225,226,227,228,229,230,231,232,999,999,999},</v>
       </c>
     </row>
     <row r="134" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -17980,7 +18233,7 @@
       </c>
       <c r="C134" t="str">
         <f t="shared" si="88"/>
-        <v>{129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146,147,148,149,150,151,152,153,154,155,156,157,158,159,160,161,162,163,164,165},</v>
+        <v>{128,127,126,125,124,123,122,121,120,119,118,117,116,115,114,113,112,111,110,109,108,107,106,105,104,103,102,101,100,99,98,97,96,95,94,93,92},</v>
       </c>
     </row>
     <row r="135" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -17989,7 +18242,7 @@
       </c>
       <c r="C135" t="str">
         <f t="shared" si="88"/>
-        <v>{999,70,69,68,67,66,65,64,63,62,61,60,59,58,57,56,55,54,53,52,51,50,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
+        <v>{999,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
       </c>
     </row>
     <row r="136" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -17998,7 +18251,7 @@
       </c>
       <c r="C136" t="str">
         <f t="shared" si="88"/>
-        <v>{999,999,999,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
+        <v>{999,999,999,28,27,26,25,24,23,22,21,20,19,18,17,16,15,14,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
       </c>
     </row>
     <row r="137" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -18007,7 +18260,7 @@
       </c>
       <c r="C137" t="str">
         <f t="shared" si="88"/>
-        <v>{999,999,999,999,34,33,32,999,6,5,4,3,2,1,0,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
+        <v>{999,999,999,29,30,31,999,7,8,9,10,11,12,13,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
       </c>
     </row>
     <row r="138" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -18097,7 +18350,7 @@
       <c r="B149" s="3"/>
       <c r="C149" t="str">
         <f>C129</f>
-        <v>uint16_t leftcanopy [][37] = {</v>
+        <v>uint16_t rightcanopy [][37] = {</v>
       </c>
     </row>
     <row r="150" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -18106,7 +18359,7 @@
       </c>
       <c r="C150" t="str">
         <f>IF($C$25&gt;B150,C130,IF($C$25=B150,"};",""))</f>
-        <v>{999,999,999,999,999,999,999,999,999,999,999,999,999,999,336,337,338,339,340,341,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
+        <v>{999,999,999,999,999,999,999,999,999,999,999,999,999,999,335,334,333,332,331,330,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
       </c>
     </row>
     <row r="151" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -18115,7 +18368,7 @@
       </c>
       <c r="C151" t="str">
         <f t="shared" ref="C151:C166" si="89">IF($C$25&gt;B151,C131,IF($C$25=B151,"};",""))</f>
-        <v>{999,999,999,999,999,999,999,999,308,307,306,305,304,303,302,301,300,299,298,297,296,295,294,293,292,291,290,289,288,999,999,999,999,999,999,999,999},</v>
+        <v>{999,999,999,999,999,999,999,999,309,310,311,312,313,314,315,316,317,318,319,320,321,322,323,324,325,326,327,328,329,999,999,999,999,999,999,999,999},</v>
       </c>
     </row>
     <row r="152" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -18124,7 +18377,7 @@
       </c>
       <c r="C152" t="str">
         <f t="shared" si="89"/>
-        <v>{999,999,999,999,260,261,262,263,264,265,266,267,268,269,270,271,272,273,274,275,276,277,278,279,280,281,282,283,284,285,286,287,999,999,999,999,999},</v>
+        <v>{999,999,999,999,259,258,257,256,255,254,253,252,251,250,249,248,247,246,245,244,243,242,241,240,239,238,237,236,235,234,233,999,999,999,999,999,999},</v>
       </c>
     </row>
     <row r="153" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -18133,7 +18386,7 @@
       </c>
       <c r="C153" t="str">
         <f t="shared" si="89"/>
-        <v>{999,199,198,197,196,195,194,193,192,191,190,189,188,187,186,185,184,183,182,181,180,179,178,177,176,175,174,173,172,171,170,169,168,167,166,999,999},</v>
+        <v>{999,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214,215,216,217,218,219,220,221,222,223,224,225,226,227,228,229,230,231,232,999,999,999},</v>
       </c>
     </row>
     <row r="154" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -18142,7 +18395,7 @@
       </c>
       <c r="C154" t="str">
         <f t="shared" si="89"/>
-        <v>{129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146,147,148,149,150,151,152,153,154,155,156,157,158,159,160,161,162,163,164,165},</v>
+        <v>{128,127,126,125,124,123,122,121,120,119,118,117,116,115,114,113,112,111,110,109,108,107,106,105,104,103,102,101,100,99,98,97,96,95,94,93,92},</v>
       </c>
     </row>
     <row r="155" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -18151,7 +18404,7 @@
       </c>
       <c r="C155" t="str">
         <f t="shared" si="89"/>
-        <v>{999,70,69,68,67,66,65,64,63,62,61,60,59,58,57,56,55,54,53,52,51,50,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
+        <v>{999,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
       </c>
     </row>
     <row r="156" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -18160,7 +18413,7 @@
       </c>
       <c r="C156" t="str">
         <f t="shared" si="89"/>
-        <v>{999,999,999,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
+        <v>{999,999,999,28,27,26,25,24,23,22,21,20,19,18,17,16,15,14,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
       </c>
     </row>
     <row r="157" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -18169,7 +18422,7 @@
       </c>
       <c r="C157" t="str">
         <f t="shared" si="89"/>
-        <v>{999,999,999,999,34,33,32,999,6,5,4,3,2,1,0,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
+        <v>{999,999,999,29,30,31,999,7,8,9,10,11,12,13,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
       </c>
     </row>
     <row r="158" spans="2:3" hidden="1" x14ac:dyDescent="0.2">
@@ -18257,55 +18510,55 @@
     <row r="169" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C169" t="str">
         <f>C149</f>
-        <v>uint16_t leftcanopy [][37] = {</v>
+        <v>uint16_t rightcanopy [][37] = {</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C170" t="str">
         <f t="shared" ref="C170:C186" si="90">C150</f>
-        <v>{999,999,999,999,999,999,999,999,999,999,999,999,999,999,336,337,338,339,340,341,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
+        <v>{999,999,999,999,999,999,999,999,999,999,999,999,999,999,335,334,333,332,331,330,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C171" t="str">
         <f t="shared" si="90"/>
-        <v>{999,999,999,999,999,999,999,999,308,307,306,305,304,303,302,301,300,299,298,297,296,295,294,293,292,291,290,289,288,999,999,999,999,999,999,999,999},</v>
+        <v>{999,999,999,999,999,999,999,999,309,310,311,312,313,314,315,316,317,318,319,320,321,322,323,324,325,326,327,328,329,999,999,999,999,999,999,999,999},</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C172" t="str">
         <f t="shared" si="90"/>
-        <v>{999,999,999,999,260,261,262,263,264,265,266,267,268,269,270,271,272,273,274,275,276,277,278,279,280,281,282,283,284,285,286,287,999,999,999,999,999},</v>
+        <v>{999,999,999,999,259,258,257,256,255,254,253,252,251,250,249,248,247,246,245,244,243,242,241,240,239,238,237,236,235,234,233,999,999,999,999,999,999},</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C173" t="str">
         <f t="shared" si="90"/>
-        <v>{999,199,198,197,196,195,194,193,192,191,190,189,188,187,186,185,184,183,182,181,180,179,178,177,176,175,174,173,172,171,170,169,168,167,166,999,999},</v>
+        <v>{999,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214,215,216,217,218,219,220,221,222,223,224,225,226,227,228,229,230,231,232,999,999,999},</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C174" t="str">
         <f t="shared" si="90"/>
-        <v>{129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146,147,148,149,150,151,152,153,154,155,156,157,158,159,160,161,162,163,164,165},</v>
+        <v>{128,127,126,125,124,123,122,121,120,119,118,117,116,115,114,113,112,111,110,109,108,107,106,105,104,103,102,101,100,99,98,97,96,95,94,93,92},</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C175" t="str">
         <f t="shared" si="90"/>
-        <v>{999,70,69,68,67,66,65,64,63,62,61,60,59,58,57,56,55,54,53,52,51,50,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
+        <v>{999,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C176" t="str">
         <f t="shared" si="90"/>
-        <v>{999,999,999,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
+        <v>{999,999,999,28,27,26,25,24,23,22,21,20,19,18,17,16,15,14,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C177" t="str">
         <f t="shared" si="90"/>
-        <v>{999,999,999,999,34,33,32,999,6,5,4,3,2,1,0,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
+        <v>{999,999,999,29,30,31,999,7,8,9,10,11,12,13,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999,999},</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.2">
@@ -18379,4 +18632,24 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>